--- a/data/TIDEs/FiveFU24hrs.xlsx
+++ b/data/TIDEs/FiveFU24hrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1D43B-85A3-4F1D-808E-9954EEF4B132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FBD88E-136A-4CD9-A456-A8D61DA0069E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{F31EE2EC-D652-42B3-A5A0-A25E364E92F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{B3D3641E-E4CF-4378-AF46-35AA9425EBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1599,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B756E8-BF33-432F-9C19-0C1F83F3FF4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DE41F3-740C-40EC-AAB0-32BE823704A6}">
   <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1616,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.23618763841115334</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.33752972376910423</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.30583659888726061</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="C4">
+        <v>0.2758872263074772</v>
+      </c>
+      <c r="D4">
         <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.15780159444408307</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.42352739076508111</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.31119704798701209</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,10 +1714,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.39215020739021533</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,10 +1728,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.21033764375412076</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,10 +1742,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.27622421709415473</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,10 +1756,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.27640269823780111</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.39665150473090366</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,10 +1784,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.42813255553727669</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,10 +1798,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.42813255553727669</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,10 +1812,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.39665150473090366</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1826,10 +1826,10 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.20334727829868557</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,10 +1840,10 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.16936430878765885</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,10 +1854,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.16368745082057509</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1868,10 +1868,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.21128139653718225</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,10 +1882,10 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.19325087789888262</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,10 +1896,10 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.21882697277879509</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,10 +1910,10 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1220754731519879</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1924,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.11978227843534939</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,10 +1938,10 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.26872292515542834</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.10102099975677643</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>-0.442</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1966,10 +1966,10 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.25509347760194961</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1980,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="C27">
+        <v>0.35775909870596806</v>
+      </c>
+      <c r="D27">
         <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1994,10 +1994,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.21395621051674496</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>-0.34899999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.16154670404030072</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>-0.38400000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,10 +2022,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.26604042942471717</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.23399094700846834</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2050,10 +2050,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.19690950074604494</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2064,10 +2064,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.15764334577189351</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.14008618585620794</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2092,10 +2092,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.2011024270182066</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2106,10 +2106,10 @@
         <v>39</v>
       </c>
       <c r="C36">
+        <v>0.20956439126583951</v>
+      </c>
+      <c r="D36">
         <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.15311529888375316</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2134,10 +2134,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.15310702233834161</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.26629706790677682</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,10 +2162,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6.7355441170491678E-2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,10 +2176,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.27730169922998466</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2190,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.32402759402820847</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2204,10 +2204,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.23940123615741271</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,10 +2218,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.32896874258034636</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2232,10 +2232,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.20039353207159286</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>-0.432</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2246,10 +2246,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.25407794960655594</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2260,10 +2260,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.27146672712178144</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2274,10 +2274,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.27016111122745334</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,10 +2288,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.24997344859404719</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2302,10 +2302,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.29361989138459782</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,10 +2316,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.39960699742243949</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2330,10 +2330,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.26286962394799579</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2344,10 +2344,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.18075243762584825</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2358,10 +2358,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.17046990604046075</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2372,10 +2372,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.16981036356339194</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,10 +2386,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.2034448454134152</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,10 +2400,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.17859598174355848</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.14192929669008814</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,10 +2428,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.19022089087088792</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>-0.42199999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2442,10 +2442,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.19396243329026636</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>-0.43099999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2456,10 +2456,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.19165106313647995</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>-0.42699999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2470,10 +2470,10 @@
         <v>65</v>
       </c>
       <c r="C62">
+        <v>0.27451382257970736</v>
+      </c>
+      <c r="D62">
         <v>0</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2484,10 +2484,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.13066856934924487</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,10 +2498,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.15499925096626468</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,10 +2512,10 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.17695315482824675</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,10 +2526,10 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.23959419868553997</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2540,10 +2540,10 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.2521089589344212</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2554,10 +2554,10 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.27138939207256446</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2568,10 +2568,10 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.20624268969608431</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2582,10 +2582,10 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.19181379239246432</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2596,10 +2596,10 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.2187258298536896</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,10 +2610,10 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.21542663277701005</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,10 +2624,10 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.21542663277701005</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,10 +2638,10 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.21429696569864395</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,10 +2652,10 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.17948434581057088</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,10 +2666,10 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.1952302033007712</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,10 +2680,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.19269953380856961</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2694,10 +2694,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.19110732150875001</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,10 +2708,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.1659591990739272</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0.23300000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2722,10 +2722,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.16463761218233475</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,10 +2736,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.16463761218233475</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,10 +2750,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.20542215164630342</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2764,10 +2764,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.19159697282057048</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,10 +2778,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.19310451227457404</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2792,10 +2792,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.23592204095453786</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2806,10 +2806,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.19310451227457404</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2820,10 +2820,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.19159697282057048</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2834,10 +2834,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.17524001480789414</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2848,10 +2848,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.17030753963553608</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2862,10 +2862,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.19775776472448109</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,10 +2876,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.19347137512024859</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2890,10 +2890,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.19421214406801299</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2904,10 +2904,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.19203999067412228</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2918,10 +2918,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.17644755988729482</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2932,10 +2932,10 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.15909610557124454</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2946,10 +2946,10 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.17169812182233712</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,10 +2960,10 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.19656949378439301</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2974,10 +2974,10 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.19451615332606512</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2988,10 +2988,10 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.19244273417735125</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3002,10 +3002,10 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.18317500778080892</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3016,10 +3016,10 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.1980310328132357</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3030,10 +3030,10 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.19607237152977658</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3044,10 +3044,10 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.19815058760206586</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3058,10 +3058,10 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.19504816952765627</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,10 +3072,10 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.26006160371866077</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>-0.45700000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,10 +3086,10 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.32188978035857091</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,10 +3100,10 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.29315877524187622</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3114,10 +3114,10 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.28666573185287869</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3128,10 +3128,10 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.28130539534614613</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3142,10 +3142,10 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.26312459133063293</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,10 +3156,10 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.28710904229127177</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3170,10 +3170,10 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.33877883542067183</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,10 +3184,10 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.34192239540963404</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3198,10 +3198,10 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.31382578682145323</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3212,10 +3212,10 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.30676610128189435</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3226,10 +3226,10 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.26006160371866077</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>-0.45700000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3240,10 +3240,10 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.2094541758148758</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3254,10 +3254,10 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.1940477951370182</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3268,10 +3268,10 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.20542546778464268</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3282,10 +3282,10 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.21117078600527725</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,10 +3296,10 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.2052547085378697</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,10 +3310,10 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.20542546778464268</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,10 +3324,10 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.2253096039762191</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,10 +3338,10 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.22432337140122677</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,10 +3352,10 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.20911873157684768</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3366,10 +3366,10 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.16897276616101151</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,10 +3380,10 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.21133490984341541</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3394,10 +3394,10 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.15493518115154684</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,10 +3408,10 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.15362740958510118</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3422,10 +3422,10 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.18730064709088037</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3436,10 +3436,10 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>0.18730064709088037</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3450,10 +3450,10 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.18924100986998049</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3464,10 +3464,10 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>0.15935025229412006</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3478,10 +3478,10 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>0.21862527976950311</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3492,10 +3492,10 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>0.21862527976950311</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,10 +3506,10 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>0.15442670086708501</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,10 +3520,10 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.15314471289038081</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3534,10 +3534,10 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.15314471289038081</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3548,10 +3548,10 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.13618360629240533</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3562,10 +3562,10 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3576,10 +3576,10 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.22231138592149052</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,10 +3590,10 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.12953880432480397</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,10 +3604,10 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>0.15362740958510118</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.15362740958510118</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,10 +3632,10 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.18428190530349323</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,10 +3660,10 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>0.20266398006583908</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3674,10 +3674,10 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>0.22568040767330688</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3688,10 +3688,10 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>0.19550796675417248</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3702,10 +3702,10 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,10 +3716,10 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>0.16502538252665841</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,10 +3730,10 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,10 +3744,10 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.21939547453056837</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,10 +3758,10 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>0.17439975725661869</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,10 +3772,10 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.20126868866633968</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3786,10 +3786,10 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>0.13542175761087025</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3800,10 +3800,10 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>0.21860395812744093</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3814,10 +3814,10 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>0.15142781335238359</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3828,10 +3828,10 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>0.13290251418527482</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3842,10 +3842,10 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>0.14276539248915424</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,10 +3856,10 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>0.12493403064669084</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,10 +3870,10 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>0.12953880432480397</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3884,10 +3884,10 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3898,10 +3898,10 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>0.16502538252665841</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3912,10 +3912,10 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,10 +3926,10 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,10 +3940,10 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.18889774049650315</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3954,10 +3954,10 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.20843897753273086</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3968,10 +3968,10 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3982,10 +3982,10 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3996,10 +3996,10 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,10 +4010,10 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4024,10 +4024,10 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>0.17926086349955259</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,10 +4038,10 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>0.15769714607469212</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,10 +4052,10 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>0.17936589103598219</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4066,10 +4066,10 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>0.18090778810825758</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4080,10 +4080,10 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>0.17923969610063389</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4094,10 +4094,10 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>0.15362740958510118</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4108,10 +4108,10 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>0.20843897753273086</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,10 +4122,10 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>0.20551646138023594</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,10 +4136,10 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,10 +4150,10 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.20419516759163447</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,10 +4164,10 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4178,10 +4178,10 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>0.19055646690285991</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,10 +4192,10 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>0.19152196759264314</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4206,10 +4206,10 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>0.19780324883248843</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4220,10 +4220,10 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>0.17652092700465022</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4234,10 +4234,10 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>0.28301555147276475</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4248,10 +4248,10 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>0.1828939953036493</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4262,10 +4262,10 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>0.19304899854253985</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4276,10 +4276,10 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>0.14095081596910153</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,10 +4290,10 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>5.9720815211352307E-2</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,10 +4304,10 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>0.18892131874759457</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4318,10 +4318,10 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>0.19980258204515011</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4332,10 +4332,10 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>4.9926208559055531E-2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,10 +4346,10 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>0.20650114608452758</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,10 +4360,10 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>0.37584555110906787</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4374,10 +4374,10 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>-0.67777629394798811</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4388,10 +4388,10 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>0.20034093933570332</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4402,10 +4402,10 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>-1.0340717944490161E-2</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>-0.47399999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,10 +4416,10 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>0.19243186454782024</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,10 +4430,10 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>0.19029145317343096</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,10 +4444,10 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>3.4921729906981683E-2</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,10 +4458,10 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>0.3537566785173431</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,10 +4472,10 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>0.25834486432568082</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,10 +4486,10 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>0.1299051517488522</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>-0.311</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4500,10 +4500,10 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>0.14948483411730915</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4514,10 +4514,10 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>0.17455920975099604</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,10 +4528,10 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>0.1890701681017862</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,10 +4542,10 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>0.25945213522322541</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,10 +4556,10 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>0.25945213522322541</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4570,10 +4570,10 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>0.26060707522550464</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,10 +4584,10 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.16386861597165245</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,10 +4598,10 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>7.8290469350765959E-2</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,10 +4612,10 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>0.13876906572615097</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,10 +4626,10 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>-4.3555002015778596E-2</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>-0.19800000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,10 +4640,10 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.28663782060914783</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,10 +4654,10 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>0.28293033572614029</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,10 +4668,10 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>0.2885911848990374</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4682,10 +4682,10 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>0.48732930410812358</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4696,10 +4696,10 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>0.43414974043103588</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,10 +4710,10 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>0.5044136532603859</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,10 +4724,10 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>-0.58586986283417619</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4738,10 +4738,10 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>0.18020084117532334</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,10 +4752,10 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>0.19048589020794968</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,10 +4766,10 @@
         <v>243</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>0.36306187079132124</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,10 +4780,10 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>0.10940079436722422</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,10 +4794,10 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>0.41139227571901771</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4808,10 +4808,10 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>0.17891370101739329</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,10 +4822,10 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>0.25641077481428454</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4836,10 +4836,10 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>0.26836793168556228</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4850,10 +4850,10 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>0.15935025229412006</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,10 +4864,10 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>-0.58786759961391699</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,10 +4878,10 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>-7.9577950356162531E-3</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,10 +4892,10 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1.4093764391250243</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4906,10 +4906,10 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>0.2461052556184842</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4920,10 +4920,10 @@
         <v>265</v>
       </c>
       <c r="C237">
+        <v>0.33249688455173104</v>
+      </c>
+      <c r="D237">
         <v>0</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4934,10 +4934,10 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>0.41417926304162622</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,10 +4948,10 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>0.30575138654319217</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4962,10 +4962,10 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>0.31090260913736856</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,10 +4976,10 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>0.31011301320392193</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,10 +4990,10 @@
         <v>275</v>
       </c>
       <c r="C242">
+        <v>0.30179718646901038</v>
+      </c>
+      <c r="D242">
         <v>0</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5004,10 +5004,10 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>0.14439796720981685</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,10 +5018,10 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>0.29819292887123966</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,10 +5032,10 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>0.26173484463616681</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,10 +5046,10 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>0.28899601479823783</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5060,10 +5060,10 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>0.33716733239801133</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5074,10 +5074,10 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>0.23514280796506717</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,10 +5088,10 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>0.26640034809437452</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -5102,10 +5102,10 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>0.27564011339451977</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -5116,10 +5116,10 @@
         <v>293</v>
       </c>
       <c r="C251">
+        <v>0.3064684483238348</v>
+      </c>
+      <c r="D251">
         <v>0</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -5130,10 +5130,10 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>0.10774606772314299</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -5144,10 +5144,10 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>0.27704463426372433</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5158,10 +5158,10 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>0.35606007817151075</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,10 +5172,10 @@
         <v>301</v>
       </c>
       <c r="C255">
+        <v>0.3393397533463291</v>
+      </c>
+      <c r="D255">
         <v>0</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,10 +5186,10 @@
         <v>303</v>
       </c>
       <c r="C256">
+        <v>0.32866526702572912</v>
+      </c>
+      <c r="D256">
         <v>0</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>305</v>
       </c>
       <c r="C257">
+        <v>0.26058193385234085</v>
+      </c>
+      <c r="D257">
         <v>0</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5214,10 +5214,10 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>0.28098306066015305</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5228,10 +5228,10 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>0.27271691645242579</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5242,10 +5242,10 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>0.17156676808528237</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,10 +5256,10 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>0.14664210206695041</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5270,10 +5270,10 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>0.16174631536688874</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5284,10 +5284,10 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>6.7304087312135455E-2</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,10 +5298,10 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>0.33701017148290718</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,10 +5312,10 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>0.27018971043933726</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5326,10 +5326,10 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>-0.23560689894754777</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5340,10 +5340,10 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>0.83463430061078547</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5354,10 +5354,10 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>0.42506273074555534</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5368,10 +5368,10 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>0.10949429632926712</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5382,10 +5382,10 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>0.48592193554947871</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>8.0842771224836033E-2</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>-0.34499999999999997</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5410,10 +5410,10 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>0.12917311050091326</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>-0.49299999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,10 +5424,10 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>0.15549410165180477</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5438,10 +5438,10 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>4.9862738234159237E-2</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5452,10 +5452,10 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>2.3988352213797311E-2</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>-0.25700000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5466,10 +5466,10 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>0.10600563626724946</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5480,10 +5480,10 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>0.24765024682607911</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,10 +5494,10 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>-0.13316399513877733</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>-0.14899999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5508,10 +5508,10 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>-0.34552681696866178</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>-0.114</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5522,10 +5522,10 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>-8.7574809306573617E-3</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>-0.30199999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,10 +5536,10 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>0.3122412330845471</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5550,10 +5550,10 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>0.19246893872464108</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5564,10 +5564,10 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>0.29102431879306312</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>-0.442</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5578,10 +5578,10 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>0.70049216948794679</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5592,10 +5592,10 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>-0.15499505124857552</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,10 +5606,10 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>0.28678462183546843</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>-0.36299999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5620,10 +5620,10 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>-3.90261037658323E-2</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5634,10 +5634,10 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>0.16192677306752362</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,10 +5648,10 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>-0.24482080425942737</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>-0.33600000000000002</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5662,10 +5662,10 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>0.4780518249487562</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>-0.40600000000000003</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5676,10 +5676,10 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>5.9400629308216248E-2</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>-0.35299999999999998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5690,10 +5690,10 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>3.8763126400838857E-2</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5704,10 +5704,10 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>0.13210268089349542</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5718,10 +5718,10 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>0.1233511350637322</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5732,10 +5732,10 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>-3.1494687168006776E-2</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>-0.32100000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5746,10 +5746,10 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>1.7966597255760761E-2</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>-0.154</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,10 +5760,10 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>0.67653853640120409</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5774,10 +5774,10 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>0.26714699172641959</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5788,10 +5788,10 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>0.26862062158161404</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>-0.33500000000000002</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5802,10 +5802,10 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>-0.32274212017388354</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,10 +5816,10 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>0.57201435324388727</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,10 +5830,10 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>-0.18901550021187685</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5844,10 +5844,10 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>0.12998016002059937</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5858,10 +5858,10 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>-2.8591133169114678E-2</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,10 +5872,10 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>2.045299645175868E-2</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>-0.18099999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5886,10 +5886,10 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>0.15109142399861358</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5900,10 +5900,10 @@
         <v>405</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>0.68304326958287997</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>0.15198125100438917</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>

--- a/data/TIDEs/FiveFU24hrs.xlsx
+++ b/data/TIDEs/FiveFU24hrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FBD88E-136A-4CD9-A456-A8D61DA0069E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BFABD-8221-4192-A7AB-1E8F8F58329A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{B3D3641E-E4CF-4378-AF46-35AA9425EBEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="7290" xr2:uid="{B3D3641E-E4CF-4378-AF46-35AA9425EBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1606,9 +1606,9 @@
       <selection sqref="A1:D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0.23618763841115334</v>
+        <v>1.2462711881546823E-2</v>
       </c>
       <c r="D1">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1630,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.33752972376910423</v>
+        <v>0.14723411313688575</v>
       </c>
       <c r="D2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.30583659888726061</v>
+        <v>0.20378179365704388</v>
       </c>
       <c r="D3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.2758872263074772</v>
+        <v>0.1551725788735363</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>262</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.15780159444408307</v>
+        <v>4.7727255226154619E-2</v>
       </c>
       <c r="D5">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>310</v>
       </c>
@@ -1686,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.42352739076508111</v>
+        <v>0.15530453656617749</v>
       </c>
       <c r="D6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1700,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.31119704798701209</v>
+        <v>0.17677041015648842</v>
       </c>
       <c r="D7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.39215020739021533</v>
+        <v>0.30467433273158295</v>
       </c>
       <c r="D8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.21033764375412076</v>
+        <v>9.2093254375149911E-2</v>
       </c>
       <c r="D9">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1742,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.27622421709415473</v>
+        <v>0.15460141659007051</v>
       </c>
       <c r="D10">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1756,13 +1756,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.27640269823780111</v>
+        <v>0.15815830885883028</v>
       </c>
       <c r="D11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1770,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.39665150473090366</v>
+        <v>8.7163596039861069E-2</v>
       </c>
       <c r="D12">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1784,13 +1784,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.42813255553727669</v>
+        <v>0.14075092603845141</v>
       </c>
       <c r="D13">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.42813255553727669</v>
+        <v>0.14075092603845141</v>
       </c>
       <c r="D14">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1812,13 +1812,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.39665150473090366</v>
+        <v>8.7163596039861069E-2</v>
       </c>
       <c r="D15">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.20334727829868557</v>
+        <v>0.11534461051024718</v>
       </c>
       <c r="D16">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1840,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.16936430878765885</v>
+        <v>7.1690764285071956E-2</v>
       </c>
       <c r="D17">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.16368745082057509</v>
+        <v>7.6130056836156035E-2</v>
       </c>
       <c r="D18">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1868,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.21128139653718225</v>
+        <v>0.10809540151441119</v>
       </c>
       <c r="D19">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1882,13 +1882,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0.19325087789888262</v>
+        <v>0.10745133248282764</v>
       </c>
       <c r="D20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1896,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.21882697277879509</v>
+        <v>0.12452610361101654</v>
       </c>
       <c r="D21">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.1220754731519879</v>
+        <v>4.5418224589486036E-2</v>
       </c>
       <c r="D22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1924,13 +1924,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0.11978227843534939</v>
+        <v>3.8257529539240782E-2</v>
       </c>
       <c r="D23">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0.26872292515542834</v>
+        <v>0.31400396808908021</v>
       </c>
       <c r="D24">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1952,13 +1952,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.10102099975677643</v>
+        <v>-0.13741144645741576</v>
       </c>
       <c r="D25">
-        <v>-0.442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1966,13 +1966,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.25509347760194961</v>
+        <v>9.2608506710734687E-2</v>
       </c>
       <c r="D26">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0.35775909870596806</v>
+        <v>0.28852277180468228</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1994,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0.21395621051674496</v>
+        <v>-2.4422545254273099E-2</v>
       </c>
       <c r="D28">
-        <v>-0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2008,13 +2008,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.16154670404030072</v>
+        <v>9.5631259900349333E-2</v>
       </c>
       <c r="D29">
-        <v>-0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2022,13 +2022,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.26604042942471717</v>
+        <v>0.22023696022174344</v>
       </c>
       <c r="D30">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.23399094700846834</v>
+        <v>0.18281525612980365</v>
       </c>
       <c r="D31">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2050,13 +2050,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0.19690950074604494</v>
+        <v>8.5964123900685308E-2</v>
       </c>
       <c r="D32">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2064,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.15764334577189351</v>
+        <v>5.1385801750985692E-2</v>
       </c>
       <c r="D33">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2078,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.14008618585620794</v>
+        <v>3.4390797797364821E-2</v>
       </c>
       <c r="D34">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2092,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0.2011024270182066</v>
+        <v>0.1211035396713819</v>
       </c>
       <c r="D35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2106,13 +2106,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0.20956439126583951</v>
+        <v>0.11926165502234318</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2120,13 +2120,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0.15311529888375316</v>
+        <v>4.428124927828439E-2</v>
       </c>
       <c r="D37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2134,13 +2134,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0.15310702233834161</v>
+        <v>4.8777806681035971E-2</v>
       </c>
       <c r="D38">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2148,13 +2148,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0.26629706790677682</v>
+        <v>0.13855499679767949</v>
       </c>
       <c r="D39">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>6.7355441170491678E-2</v>
+        <v>-9.9434320157882339E-3</v>
       </c>
       <c r="D40">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2176,13 +2176,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0.27730169922998466</v>
+        <v>0.17368909008455524</v>
       </c>
       <c r="D41">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44</v>
       </c>
@@ -2190,13 +2190,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0.32402759402820847</v>
+        <v>0.21457248893541447</v>
       </c>
       <c r="D42">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45</v>
       </c>
@@ -2204,13 +2204,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.23940123615741271</v>
+        <v>0.12534571624320215</v>
       </c>
       <c r="D43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -2218,13 +2218,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.32896874258034636</v>
+        <v>0.18045175532142857</v>
       </c>
       <c r="D44">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.20039353207159286</v>
+        <v>6.3856056051471141E-2</v>
       </c>
       <c r="D45">
-        <v>-0.432</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>48</v>
       </c>
@@ -2246,13 +2246,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.25407794960655594</v>
+        <v>0.14873025156227504</v>
       </c>
       <c r="D46">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -2260,13 +2260,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.27146672712178144</v>
+        <v>0.17704228013883896</v>
       </c>
       <c r="D47">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2274,13 +2274,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0.27016111122745334</v>
+        <v>0.142497179331425</v>
       </c>
       <c r="D48">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>70</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0.24997344859404719</v>
+        <v>0.14474671057953506</v>
       </c>
       <c r="D49">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>73</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.29361989138459782</v>
+        <v>0.10509920001174657</v>
       </c>
       <c r="D50">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2316,13 +2316,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0.39960699742243949</v>
+        <v>0.30287332107094916</v>
       </c>
       <c r="D51">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2330,13 +2330,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.26286962394799579</v>
+        <v>0.17146134390201714</v>
       </c>
       <c r="D52">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>103</v>
       </c>
@@ -2344,13 +2344,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0.18075243762584825</v>
+        <v>9.6408749645914296E-2</v>
       </c>
       <c r="D53">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>104</v>
       </c>
@@ -2358,13 +2358,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.17046990604046075</v>
+        <v>0.15027964163452043</v>
       </c>
       <c r="D54">
-        <v>0.45400000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2372,13 +2372,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.16981036356339194</v>
+        <v>0.15481518149045626</v>
       </c>
       <c r="D55">
-        <v>0.45600000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>106</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0.2034448454134152</v>
+        <v>0.17113655241280309</v>
       </c>
       <c r="D56">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2400,13 +2400,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0.17859598174355848</v>
+        <v>0.16200862619124576</v>
       </c>
       <c r="D57">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>108</v>
       </c>
@@ -2414,13 +2414,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0.14192929669008814</v>
+        <v>0.12152907065002702</v>
       </c>
       <c r="D58">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>109</v>
       </c>
@@ -2428,13 +2428,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.19022089087088792</v>
+        <v>-2.9628791534326245E-3</v>
       </c>
       <c r="D59">
-        <v>-0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>110</v>
       </c>
@@ -2442,13 +2442,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0.19396243329026636</v>
+        <v>-2.5166840769733213E-3</v>
       </c>
       <c r="D60">
-        <v>-0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>111</v>
       </c>
@@ -2456,13 +2456,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0.19165106313647995</v>
+        <v>-3.0474147085680667E-3</v>
       </c>
       <c r="D61">
-        <v>-0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>112</v>
       </c>
@@ -2470,13 +2470,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0.27451382257970736</v>
+        <v>0.18647024759407407</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>113</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0.13066856934924487</v>
+        <v>4.551673984477176E-2</v>
       </c>
       <c r="D63">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>114</v>
       </c>
@@ -2498,13 +2498,13 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0.15499925096626468</v>
+        <v>7.3038430543229588E-2</v>
       </c>
       <c r="D64">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>115</v>
       </c>
@@ -2512,13 +2512,13 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0.17695315482824675</v>
+        <v>9.0128464537475264E-2</v>
       </c>
       <c r="D65">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>116</v>
       </c>
@@ -2526,13 +2526,13 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0.23959419868553997</v>
+        <v>0.14507324549515388</v>
       </c>
       <c r="D66">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>117</v>
       </c>
@@ -2540,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.2521089589344212</v>
+        <v>0.21225822305172429</v>
       </c>
       <c r="D67">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>121</v>
       </c>
@@ -2554,13 +2554,13 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0.27138939207256446</v>
+        <v>0.13506763397896807</v>
       </c>
       <c r="D68">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>122</v>
       </c>
@@ -2568,13 +2568,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.20624268969608431</v>
+        <v>0.14123113946444618</v>
       </c>
       <c r="D69">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>123</v>
       </c>
@@ -2582,13 +2582,13 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0.19181379239246432</v>
+        <v>0.10541304238244407</v>
       </c>
       <c r="D70">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>124</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.2187258298536896</v>
+        <v>0.13852771165263497</v>
       </c>
       <c r="D71">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>125</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.21542663277701005</v>
+        <v>0.13537935456962052</v>
       </c>
       <c r="D72">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>126</v>
       </c>
@@ -2624,13 +2624,13 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.21542663277701005</v>
+        <v>0.13537935456962052</v>
       </c>
       <c r="D73">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>127</v>
       </c>
@@ -2638,13 +2638,13 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0.21429696569864395</v>
+        <v>0.13693543910490352</v>
       </c>
       <c r="D74">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>128</v>
       </c>
@@ -2652,13 +2652,13 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.17948434581057088</v>
+        <v>9.9791013455380384E-2</v>
       </c>
       <c r="D75">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>129</v>
       </c>
@@ -2666,13 +2666,13 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0.1952302033007712</v>
+        <v>0.13707779184748595</v>
       </c>
       <c r="D76">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>130</v>
       </c>
@@ -2680,13 +2680,13 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.19269953380856961</v>
+        <v>0.10805228862610097</v>
       </c>
       <c r="D77">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>131</v>
       </c>
@@ -2694,13 +2694,13 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.19110732150875001</v>
+        <v>0.10947402926591809</v>
       </c>
       <c r="D78">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>132</v>
       </c>
@@ -2708,13 +2708,13 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0.1659591990739272</v>
+        <v>9.1349627246143414E-2</v>
       </c>
       <c r="D79">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>133</v>
       </c>
@@ -2722,13 +2722,13 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0.16463761218233475</v>
+        <v>6.545111793450617E-2</v>
       </c>
       <c r="D80">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>134</v>
       </c>
@@ -2736,13 +2736,13 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.16463761218233475</v>
+        <v>6.545111793450617E-2</v>
       </c>
       <c r="D81">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>135</v>
       </c>
@@ -2750,13 +2750,13 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.20542215164630342</v>
+        <v>0.1258899270943582</v>
       </c>
       <c r="D82">
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>136</v>
       </c>
@@ -2764,13 +2764,13 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.19159697282057048</v>
+        <v>0.11478638991690326</v>
       </c>
       <c r="D83">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>137</v>
       </c>
@@ -2778,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.19310451227457404</v>
+        <v>0.11336927399200322</v>
       </c>
       <c r="D84">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2792,13 +2792,13 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.23592204095453786</v>
+        <v>0.16805544555658986</v>
       </c>
       <c r="D85">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>139</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.19310451227457404</v>
+        <v>0.11336927399200322</v>
       </c>
       <c r="D86">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2820,13 +2820,13 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0.19159697282057048</v>
+        <v>0.11478638991690326</v>
       </c>
       <c r="D87">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>141</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0.17524001480789414</v>
+        <v>9.7125107185916451E-2</v>
       </c>
       <c r="D88">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>142</v>
       </c>
@@ -2848,13 +2848,13 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0.17030753963553608</v>
+        <v>7.3386018117112942E-2</v>
       </c>
       <c r="D89">
-        <v>0.25600000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>143</v>
       </c>
@@ -2862,13 +2862,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0.19775776472448109</v>
+        <v>0.11959281145827083</v>
       </c>
       <c r="D90">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>144</v>
       </c>
@@ -2876,13 +2876,13 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0.19347137512024859</v>
+        <v>0.11818583720582058</v>
       </c>
       <c r="D91">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>145</v>
       </c>
@@ -2890,13 +2890,13 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.19421214406801299</v>
+        <v>0.11959281145827083</v>
       </c>
       <c r="D92">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>146</v>
       </c>
@@ -2904,13 +2904,13 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.19203999067412228</v>
+        <v>0.11959281145827083</v>
       </c>
       <c r="D93">
-        <v>0.26100000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>147</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.17644755988729482</v>
+        <v>0.10270610177884376</v>
       </c>
       <c r="D94">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>148</v>
       </c>
@@ -2932,13 +2932,13 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0.15909610557124454</v>
+        <v>8.6212106278008044E-2</v>
       </c>
       <c r="D95">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>149</v>
       </c>
@@ -2946,13 +2946,13 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0.17169812182233712</v>
+        <v>7.9855801033863361E-2</v>
       </c>
       <c r="D96">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>150</v>
       </c>
@@ -2960,13 +2960,13 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0.19656949378439301</v>
+        <v>0.12538713944410618</v>
       </c>
       <c r="D97">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>151</v>
       </c>
@@ -2974,13 +2974,13 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0.19451615332606512</v>
+        <v>0.12396228558678679</v>
       </c>
       <c r="D98">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>152</v>
       </c>
@@ -2988,13 +2988,13 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0.19244273417735125</v>
+        <v>0.12396228558678679</v>
       </c>
       <c r="D99">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>153</v>
       </c>
@@ -3002,13 +3002,13 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0.18317500778080892</v>
+        <v>9.5970218093593254E-2</v>
       </c>
       <c r="D100">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>154</v>
       </c>
@@ -3016,13 +3016,13 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0.1980310328132357</v>
+        <v>0.12795180544325788</v>
       </c>
       <c r="D101">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>155</v>
       </c>
@@ -3030,13 +3030,13 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0.19607237152977658</v>
+        <v>0.12657597957827663</v>
       </c>
       <c r="D102">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>156</v>
       </c>
@@ -3044,13 +3044,13 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0.19815058760206586</v>
+        <v>0.13160886531168972</v>
       </c>
       <c r="D103">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>157</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0.19504816952765627</v>
+        <v>0.13160886531168972</v>
       </c>
       <c r="D104">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>159</v>
       </c>
@@ -3072,13 +3072,13 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0.26006160371866077</v>
+        <v>-2.1169624205213664E-3</v>
       </c>
       <c r="D105">
-        <v>-0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>160</v>
       </c>
@@ -3086,13 +3086,13 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0.32188978035857091</v>
+        <v>0.20370034093336023</v>
       </c>
       <c r="D106">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>161</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0.29315877524187622</v>
+        <v>0.17704283475394991</v>
       </c>
       <c r="D107">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>162</v>
       </c>
@@ -3114,13 +3114,13 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0.28666573185287869</v>
+        <v>0.18257210916862723</v>
       </c>
       <c r="D108">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>163</v>
       </c>
@@ -3128,13 +3128,13 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0.28130539534614613</v>
+        <v>0.1846439299884394</v>
       </c>
       <c r="D109">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>164</v>
       </c>
@@ -3142,13 +3142,13 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0.26312459133063293</v>
+        <v>0.1694811265272867</v>
       </c>
       <c r="D110">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>165</v>
       </c>
@@ -3156,13 +3156,13 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0.28710904229127177</v>
+        <v>0.17957912377242022</v>
       </c>
       <c r="D111">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>166</v>
       </c>
@@ -3170,13 +3170,13 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0.33877883542067183</v>
+        <v>0.21753074043573065</v>
       </c>
       <c r="D112">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>167</v>
       </c>
@@ -3184,13 +3184,13 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0.34192239540963404</v>
+        <v>0.23423933746040851</v>
       </c>
       <c r="D113">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>168</v>
       </c>
@@ -3198,13 +3198,13 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0.31382578682145323</v>
+        <v>0.20796786544763832</v>
       </c>
       <c r="D114">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>169</v>
       </c>
@@ -3212,13 +3212,13 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0.30676610128189435</v>
+        <v>0.20520295360239296</v>
       </c>
       <c r="D115">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>171</v>
       </c>
@@ -3226,13 +3226,13 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0.26006160371866077</v>
+        <v>-2.1169624205213664E-3</v>
       </c>
       <c r="D116">
-        <v>-0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>172</v>
       </c>
@@ -3240,13 +3240,13 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0.2094541758148758</v>
+        <v>0.18095576635943364</v>
       </c>
       <c r="D117">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>173</v>
       </c>
@@ -3254,13 +3254,13 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0.1940477951370182</v>
+        <v>0.16583724840334815</v>
       </c>
       <c r="D118">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>174</v>
       </c>
@@ -3268,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0.20542546778464268</v>
+        <v>0.178625854564334</v>
       </c>
       <c r="D119">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>175</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0.21117078600527725</v>
+        <v>0.1872180677528924</v>
       </c>
       <c r="D120">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>176</v>
       </c>
@@ -3296,13 +3296,13 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0.2052547085378697</v>
+        <v>0.18002568051608073</v>
       </c>
       <c r="D121">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>177</v>
       </c>
@@ -3310,13 +3310,13 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0.20542546778464268</v>
+        <v>0.178625854564334</v>
       </c>
       <c r="D122">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>178</v>
       </c>
@@ -3324,13 +3324,13 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0.2253096039762191</v>
+        <v>0.1959112447484998</v>
       </c>
       <c r="D123">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>179</v>
       </c>
@@ -3338,13 +3338,13 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0.22432337140122677</v>
+        <v>0.19671164868939359</v>
       </c>
       <c r="D124">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>180</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0.20911873157684768</v>
+        <v>0.18231911835653905</v>
       </c>
       <c r="D125">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>181</v>
       </c>
@@ -3366,13 +3366,13 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0.16897276616101151</v>
+        <v>0.12437873812157581</v>
       </c>
       <c r="D126">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>182</v>
       </c>
@@ -3380,13 +3380,13 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>0.21133490984341541</v>
+        <v>0.16537094970371044</v>
       </c>
       <c r="D127">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>183</v>
       </c>
@@ -3394,13 +3394,13 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0.15493518115154684</v>
+        <v>0.1388023928425883</v>
       </c>
       <c r="D128">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>184</v>
       </c>
@@ -3408,13 +3408,13 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0.15362740958510118</v>
+        <v>0.14342913927067463</v>
       </c>
       <c r="D129">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>185</v>
       </c>
@@ -3422,13 +3422,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0.18730064709088037</v>
+        <v>0.13905177009960124</v>
       </c>
       <c r="D130">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>186</v>
       </c>
@@ -3436,13 +3436,13 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0.18730064709088037</v>
+        <v>0.13905177009960118</v>
       </c>
       <c r="D131">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>187</v>
       </c>
@@ -3450,13 +3450,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0.18924100986998049</v>
+        <v>0.14036380737722945</v>
       </c>
       <c r="D132">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>188</v>
       </c>
@@ -3464,13 +3464,13 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0.15935025229412006</v>
+        <v>0.14498099094156505</v>
       </c>
       <c r="D133">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>189</v>
       </c>
@@ -3478,13 +3478,13 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0.21862527976950311</v>
+        <v>0.16531963984625189</v>
       </c>
       <c r="D134">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>190</v>
       </c>
@@ -3492,13 +3492,13 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0.21862527976950311</v>
+        <v>0.16531963984625189</v>
       </c>
       <c r="D135">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>191</v>
       </c>
@@ -3506,13 +3506,13 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0.15442670086708501</v>
+        <v>0.13328306172022805</v>
       </c>
       <c r="D136">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>192</v>
       </c>
@@ -3520,13 +3520,13 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0.15314471289038081</v>
+        <v>0.13758251532410637</v>
       </c>
       <c r="D137">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>193</v>
       </c>
@@ -3534,13 +3534,13 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0.15314471289038081</v>
+        <v>0.13758251532410637</v>
       </c>
       <c r="D138">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>194</v>
       </c>
@@ -3548,13 +3548,13 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0.13618360629240533</v>
+        <v>0.11571382293567371</v>
       </c>
       <c r="D139">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>195</v>
       </c>
@@ -3562,13 +3562,13 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D140">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>196</v>
       </c>
@@ -3576,13 +3576,13 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0.22231138592149052</v>
+        <v>0.16548776798130466</v>
       </c>
       <c r="D141">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>197</v>
       </c>
@@ -3590,13 +3590,13 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0.12953880432480397</v>
+        <v>0.11950771876963023</v>
       </c>
       <c r="D142">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>198</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0.15362740958510118</v>
+        <v>0.1434291392706746</v>
       </c>
       <c r="D143">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>199</v>
       </c>
@@ -3618,13 +3618,13 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0.15362740958510118</v>
+        <v>0.14342913927067463</v>
       </c>
       <c r="D144">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>200</v>
       </c>
@@ -3632,13 +3632,13 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D145">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201</v>
       </c>
@@ -3646,13 +3646,13 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0.18428190530349323</v>
+        <v>0.15888304707918188</v>
       </c>
       <c r="D146">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>202</v>
       </c>
@@ -3660,13 +3660,13 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0.20266398006583908</v>
+        <v>0.17892764168469416</v>
       </c>
       <c r="D147">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>203</v>
       </c>
@@ -3674,13 +3674,13 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0.22568040767330688</v>
+        <v>0.16564143348108404</v>
       </c>
       <c r="D148">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>204</v>
       </c>
@@ -3688,13 +3688,13 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0.19550796675417248</v>
+        <v>0.17901204179669739</v>
       </c>
       <c r="D149">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>205</v>
       </c>
@@ -3702,13 +3702,13 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D150">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>206</v>
       </c>
@@ -3716,13 +3716,13 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>0.16502538252665841</v>
+        <v>0.15465426017300424</v>
       </c>
       <c r="D151">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>207</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D152">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3744,13 +3744,13 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>0.21939547453056837</v>
+        <v>0.18773970990163116</v>
       </c>
       <c r="D153">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>209</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0.17439975725661869</v>
+        <v>0.14536938106645472</v>
       </c>
       <c r="D154">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>210</v>
       </c>
@@ -3772,13 +3772,13 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>0.20126868866633968</v>
+        <v>0.17846675133392903</v>
       </c>
       <c r="D155">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>211</v>
       </c>
@@ -3786,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>0.13542175761087025</v>
+        <v>0.12505063525721605</v>
       </c>
       <c r="D156">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>212</v>
       </c>
@@ -3800,13 +3800,13 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0.21860395812744093</v>
+        <v>0.1627378041029274</v>
       </c>
       <c r="D157">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>213</v>
       </c>
@@ -3814,13 +3814,13 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>0.15142781335238359</v>
+        <v>0.12447991620932564</v>
       </c>
       <c r="D158">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>214</v>
       </c>
@@ -3828,13 +3828,13 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>0.13290251418527482</v>
+        <v>0.12098894922126764</v>
       </c>
       <c r="D159">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>215</v>
       </c>
@@ -3842,13 +3842,13 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>0.14276539248915424</v>
+        <v>0.12142200939163082</v>
       </c>
       <c r="D160">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>216</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>0.12493403064669084</v>
+        <v>0.11747952084099757</v>
       </c>
       <c r="D161">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>217</v>
       </c>
@@ -3870,13 +3870,13 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>0.12953880432480397</v>
+        <v>0.11950771876963023</v>
       </c>
       <c r="D162">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>218</v>
       </c>
@@ -3884,13 +3884,13 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D163">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>219</v>
       </c>
@@ -3898,13 +3898,13 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>0.16502538252665841</v>
+        <v>0.15465426017300421</v>
       </c>
       <c r="D164">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3912,13 +3912,13 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D165">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>221</v>
       </c>
@@ -3926,13 +3926,13 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D166">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>222</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>0.18889774049650315</v>
+        <v>0.15527479642859959</v>
       </c>
       <c r="D167">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>223</v>
       </c>
@@ -3954,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>0.20843897753273086</v>
+        <v>0.17437937185355584</v>
       </c>
       <c r="D168">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>224</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D169">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>225</v>
       </c>
@@ -3982,13 +3982,13 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D170">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>226</v>
       </c>
@@ -3996,13 +3996,13 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D171">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>227</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D172">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>228</v>
       </c>
@@ -4024,13 +4024,13 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>0.17926086349955259</v>
+        <v>0.1353949331953774</v>
       </c>
       <c r="D173">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>229</v>
       </c>
@@ -4038,13 +4038,13 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0.15769714607469212</v>
+        <v>0.14376621508161674</v>
       </c>
       <c r="D174">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>230</v>
       </c>
@@ -4052,13 +4052,13 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0.17936589103598219</v>
+        <v>0.16523009341065567</v>
       </c>
       <c r="D175">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>231</v>
       </c>
@@ -4066,13 +4066,13 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0.18090778810825758</v>
+        <v>0.16611956905406985</v>
       </c>
       <c r="D176">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>232</v>
       </c>
@@ -4080,13 +4080,13 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0.17923969610063389</v>
+        <v>0.17279029561496578</v>
       </c>
       <c r="D177">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>233</v>
       </c>
@@ -4094,13 +4094,13 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>0.15362740958510118</v>
+        <v>0.14342913927067463</v>
       </c>
       <c r="D178">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>234</v>
       </c>
@@ -4108,13 +4108,13 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>0.20843897753273086</v>
+        <v>0.17437937185355584</v>
       </c>
       <c r="D179">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>235</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>0.20551646138023594</v>
+        <v>0.17100870299475596</v>
       </c>
       <c r="D180">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>236</v>
       </c>
@@ -4136,13 +4136,13 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D181">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>237</v>
       </c>
@@ -4150,13 +4150,13 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>0.20419516759163447</v>
+        <v>0.19414212124348565</v>
       </c>
       <c r="D182">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>238</v>
       </c>
@@ -4164,13 +4164,13 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D183">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>239</v>
       </c>
@@ -4178,13 +4178,13 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>0.19055646690285991</v>
+        <v>0.18000653209483239</v>
       </c>
       <c r="D184">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>240</v>
       </c>
@@ -4192,13 +4192,13 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0.19152196759264314</v>
+        <v>0.16647629654464408</v>
       </c>
       <c r="D185">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>245</v>
       </c>
@@ -4206,13 +4206,13 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>0.19780324883248843</v>
+        <v>0.13325317478050694</v>
       </c>
       <c r="D186">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>247</v>
       </c>
@@ -4220,13 +4220,13 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>0.17652092700465022</v>
+        <v>9.502015164040592E-2</v>
       </c>
       <c r="D187">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>248</v>
       </c>
@@ -4234,13 +4234,13 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>0.28301555147276475</v>
+        <v>0.17385910613004707</v>
       </c>
       <c r="D188">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>252</v>
       </c>
@@ -4248,13 +4248,13 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>0.1828939953036493</v>
+        <v>0.1536312006775867</v>
       </c>
       <c r="D189">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>254</v>
       </c>
@@ -4262,13 +4262,13 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>0.19304899854253985</v>
+        <v>0.1462401304377626</v>
       </c>
       <c r="D190">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>255</v>
       </c>
@@ -4276,13 +4276,13 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>0.14095081596910153</v>
+        <v>6.7793829403945002E-2</v>
       </c>
       <c r="D191">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>5.9720815211352307E-2</v>
+        <v>-6.506909650546569E-2</v>
       </c>
       <c r="D192">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>257</v>
       </c>
@@ -4304,13 +4304,13 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>0.18892131874759457</v>
+        <v>6.3128511522838618E-2</v>
       </c>
       <c r="D193">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>259</v>
       </c>
@@ -4318,13 +4318,13 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>0.19980258204515011</v>
+        <v>8.2520982540293358E-2</v>
       </c>
       <c r="D194">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>260</v>
       </c>
@@ -4332,13 +4332,13 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>4.9926208559055531E-2</v>
+        <v>-5.502177489321454E-2</v>
       </c>
       <c r="D195">
-        <v>0.223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>261</v>
       </c>
@@ -4346,13 +4346,13 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>0.20650114608452758</v>
+        <v>9.2565772132732038E-2</v>
       </c>
       <c r="D196">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>263</v>
       </c>
@@ -4360,13 +4360,13 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0.37584555110906787</v>
+        <v>0.2305659361470625</v>
       </c>
       <c r="D197">
-        <v>0.28399999999999997</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>264</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>-0.67777629394798811</v>
+        <v>-1.0784776218394467</v>
       </c>
       <c r="D198">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>265</v>
       </c>
@@ -4388,13 +4388,13 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>0.20034093933570332</v>
+        <v>6.2320546714678675E-2</v>
       </c>
       <c r="D199">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>266</v>
       </c>
@@ -4402,13 +4402,13 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>-1.0340717944490161E-2</v>
+        <v>-1.6343384987878365E-2</v>
       </c>
       <c r="D200">
-        <v>-0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>267</v>
       </c>
@@ -4416,13 +4416,13 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>0.19243186454782024</v>
+        <v>4.9630504863399101E-2</v>
       </c>
       <c r="D201">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>268</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>0.19029145317343096</v>
+        <v>7.4182669663622788E-2</v>
       </c>
       <c r="D202">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>269</v>
       </c>
@@ -4444,13 +4444,13 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>3.4921729906981683E-2</v>
+        <v>-2.6549883042940908E-2</v>
       </c>
       <c r="D203">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>272</v>
       </c>
@@ -4458,13 +4458,13 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>0.3537566785173431</v>
+        <v>0.22935840671829658</v>
       </c>
       <c r="D204">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>277</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>0.25834486432568082</v>
+        <v>0.10398460943065083</v>
       </c>
       <c r="D205">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>306</v>
       </c>
@@ -4486,13 +4486,13 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0.1299051517488522</v>
+        <v>6.1167935847872133E-2</v>
       </c>
       <c r="D206">
-        <v>-0.311</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>307</v>
       </c>
@@ -4500,13 +4500,13 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>0.14948483411730915</v>
+        <v>7.1060271937445657E-2</v>
       </c>
       <c r="D207">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>308</v>
       </c>
@@ -4514,13 +4514,13 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0.17455920975099604</v>
+        <v>0.10896175856411729</v>
       </c>
       <c r="D208">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>309</v>
       </c>
@@ -4528,13 +4528,13 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>0.1890701681017862</v>
+        <v>7.4907997934276355E-2</v>
       </c>
       <c r="D209">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>321</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>0.25945213522322541</v>
+        <v>9.9918920202344594E-2</v>
       </c>
       <c r="D210">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>322</v>
       </c>
@@ -4556,13 +4556,13 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>0.25945213522322541</v>
+        <v>9.9918920202344594E-2</v>
       </c>
       <c r="D211">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>323</v>
       </c>
@@ -4570,13 +4570,13 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>0.26060707522550464</v>
+        <v>9.9918920202344594E-2</v>
       </c>
       <c r="D212">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -4584,13 +4584,13 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>0.16386861597165245</v>
+        <v>5.0677515413477286E-2</v>
       </c>
       <c r="D213">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -4598,13 +4598,13 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>7.8290469350765959E-2</v>
+        <v>8.5280234243330602E-2</v>
       </c>
       <c r="D214">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4612,13 +4612,13 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0.13876906572615097</v>
+        <v>8.9380239568817146E-2</v>
       </c>
       <c r="D215">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -4626,13 +4626,13 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>-4.3555002015778596E-2</v>
+        <v>-0.40275783976857438</v>
       </c>
       <c r="D216">
-        <v>-0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>0.28663782060914783</v>
+        <v>4.6444672199341196E-2</v>
       </c>
       <c r="D217">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4654,13 +4654,13 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>0.28293033572614029</v>
+        <v>0.13731812672643584</v>
       </c>
       <c r="D218">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>0.2885911848990374</v>
+        <v>0.21628711856002153</v>
       </c>
       <c r="D219">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -4682,13 +4682,13 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0.48732930410812358</v>
+        <v>0.47836176671118047</v>
       </c>
       <c r="D220">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -4696,13 +4696,13 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>0.43414974043103588</v>
+        <v>0.24104709953089398</v>
       </c>
       <c r="D221">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -4710,13 +4710,13 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>0.5044136532603859</v>
+        <v>0.39501956948774736</v>
       </c>
       <c r="D222">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -4724,13 +4724,13 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>-0.58586986283417619</v>
+        <v>-0.52151654133513969</v>
       </c>
       <c r="D223">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -4738,13 +4738,13 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>0.18020084117532334</v>
+        <v>-1.5248843995131224E-2</v>
       </c>
       <c r="D224">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -4752,13 +4752,13 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>0.19048589020794968</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -4766,13 +4766,13 @@
         <v>243</v>
       </c>
       <c r="C226">
-        <v>0.36306187079132124</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>0.10940079436722422</v>
+        <v>3.0570586263612459E-2</v>
       </c>
       <c r="D227">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -4794,13 +4794,13 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>0.41139227571901771</v>
+        <v>0.21828392512278974</v>
       </c>
       <c r="D228">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0.17891370101739329</v>
+        <v>0.15690357661712326</v>
       </c>
       <c r="D229">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -4822,13 +4822,13 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>0.25641077481428454</v>
+        <v>0.15340413672654327</v>
       </c>
       <c r="D230">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -4836,13 +4836,13 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>0.26836793168556228</v>
+        <v>0.18648675904704651</v>
       </c>
       <c r="D231">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4850,13 +4850,13 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0.15935025229412006</v>
+        <v>0.14498099094156505</v>
       </c>
       <c r="D232">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -4864,13 +4864,13 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>-0.58786759961391699</v>
+        <v>-0.11092697215333701</v>
       </c>
       <c r="D233">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -4878,13 +4878,13 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>-7.9577950356162531E-3</v>
+        <v>-4.8639069506356665E-2</v>
       </c>
       <c r="D234">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4892,13 +4892,13 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>1.4093764391250243</v>
+        <v>1.2244024364833206</v>
       </c>
       <c r="D235">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0.2461052556184842</v>
+        <v>0.15239710034027329</v>
       </c>
       <c r="D236">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -4920,13 +4920,13 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>0.33249688455173104</v>
+        <v>0.18368739059934747</v>
       </c>
       <c r="D237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4934,13 +4934,13 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0.41417926304162622</v>
+        <v>0.29832536023359529</v>
       </c>
       <c r="D238">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>0.30575138654319217</v>
+        <v>0.17823229499947876</v>
       </c>
       <c r="D239">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -4962,13 +4962,13 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>0.31090260913736856</v>
+        <v>0.11268447913885374</v>
       </c>
       <c r="D240">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -4976,13 +4976,13 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>0.31011301320392193</v>
+        <v>0.15435859997339224</v>
       </c>
       <c r="D241">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4990,13 +4990,13 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>0.30179718646901038</v>
+        <v>0.17910721809239247</v>
       </c>
       <c r="D242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>0.14439796720981685</v>
+        <v>5.9352496196695005E-2</v>
       </c>
       <c r="D243">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5018,13 +5018,13 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0.29819292887123966</v>
+        <v>0.20339966853568342</v>
       </c>
       <c r="D244">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -5032,13 +5032,13 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0.26173484463616681</v>
+        <v>0.19374411639735126</v>
       </c>
       <c r="D245">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>282</v>
       </c>
@@ -5046,13 +5046,13 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>0.28899601479823783</v>
+        <v>0.22307827697584001</v>
       </c>
       <c r="D246">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -5060,13 +5060,13 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>0.33716733239801133</v>
+        <v>0.23306675316936604</v>
       </c>
       <c r="D247">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -5074,13 +5074,13 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>0.23514280796506717</v>
+        <v>0.13169746336574931</v>
       </c>
       <c r="D248">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5088,13 +5088,13 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>0.26640034809437452</v>
+        <v>0.16141073101161973</v>
       </c>
       <c r="D249">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -5102,13 +5102,13 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>0.27564011339451977</v>
+        <v>0.16911844162518935</v>
       </c>
       <c r="D250">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5116,13 +5116,13 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>0.3064684483238348</v>
+        <v>0.17793680792143499</v>
       </c>
       <c r="D251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5130,13 +5130,13 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>0.10774606772314299</v>
+        <v>6.3200390034009041E-3</v>
       </c>
       <c r="D252">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -5144,13 +5144,13 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>0.27704463426372433</v>
+        <v>0.18089026131946831</v>
       </c>
       <c r="D253">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -5158,13 +5158,13 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>0.35606007817151075</v>
+        <v>0.29416401882447973</v>
       </c>
       <c r="D254">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -5172,13 +5172,13 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>0.3393397533463291</v>
+        <v>0.2136142698670874</v>
       </c>
       <c r="D255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5186,13 +5186,13 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>0.32866526702572912</v>
+        <v>0.15812735867554548</v>
       </c>
       <c r="D256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -5200,13 +5200,13 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>0.26058193385234085</v>
+        <v>0.13569911125500225</v>
       </c>
       <c r="D257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>0.28098306066015305</v>
+        <v>0.18024990805188482</v>
       </c>
       <c r="D258">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>0.27271691645242579</v>
+        <v>0.16875792200403952</v>
       </c>
       <c r="D259">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -5242,13 +5242,13 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>0.17156676808528237</v>
+        <v>8.2074964858589672E-2</v>
       </c>
       <c r="D260">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>312</v>
       </c>
@@ -5256,13 +5256,13 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>0.14664210206695041</v>
+        <v>8.2470238993315667E-2</v>
       </c>
       <c r="D261">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -5270,13 +5270,13 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0.16174631536688874</v>
+        <v>9.4741642851474767E-2</v>
       </c>
       <c r="D262">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -5284,13 +5284,13 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>6.7304087312135455E-2</v>
+        <v>5.7014555688667971E-2</v>
       </c>
       <c r="D263">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -5298,13 +5298,13 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0.33701017148290718</v>
+        <v>0.20989050839115247</v>
       </c>
       <c r="D264">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5312,13 +5312,13 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>0.27018971043933726</v>
+        <v>0.17814360981116834</v>
       </c>
       <c r="D265">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -5326,13 +5326,13 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>-0.23560689894754777</v>
+        <v>-0.30942995053455391</v>
       </c>
       <c r="D266">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -5340,13 +5340,13 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0.83463430061078547</v>
+        <v>0.70141810481005595</v>
       </c>
       <c r="D267">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>326</v>
       </c>
@@ -5354,13 +5354,13 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>0.42506273074555534</v>
+        <v>0.42139033025052869</v>
       </c>
       <c r="D268">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -5368,13 +5368,13 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>0.10949429632926712</v>
+        <v>2.4936433518268332E-2</v>
       </c>
       <c r="D269">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -5382,13 +5382,13 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>0.48592193554947871</v>
+        <v>0.26588355459751878</v>
       </c>
       <c r="D270">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -5396,13 +5396,13 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>8.0842771224836033E-2</v>
+        <v>8.6361560914444385E-2</v>
       </c>
       <c r="D271">
-        <v>-0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -5410,13 +5410,13 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>0.12917311050091326</v>
+        <v>-0.18789221958052441</v>
       </c>
       <c r="D272">
-        <v>-0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -5424,13 +5424,13 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>0.15549410165180477</v>
+        <v>0.13532393431800777</v>
       </c>
       <c r="D273">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -5438,13 +5438,13 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>4.9862738234159237E-2</v>
+        <v>4.1176856309544672E-2</v>
       </c>
       <c r="D274">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5455,10 +5455,10 @@
         <v>2.3988352213797311E-2</v>
       </c>
       <c r="D275">
-        <v>-0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5466,13 +5466,13 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>0.10600563626724946</v>
+        <v>3.22687131342193E-2</v>
       </c>
       <c r="D276">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -5480,13 +5480,13 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0.24765024682607911</v>
+        <v>0.13189906573221452</v>
       </c>
       <c r="D277">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -5494,13 +5494,13 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>-0.13316399513877733</v>
+        <v>-6.6358884313391694E-2</v>
       </c>
       <c r="D278">
-        <v>-0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -5508,13 +5508,13 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>-0.34552681696866178</v>
+        <v>-0.10002183726401553</v>
       </c>
       <c r="D279">
-        <v>-0.114</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -5522,13 +5522,13 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>-8.7574809306573617E-3</v>
+        <v>7.465419692567774E-3</v>
       </c>
       <c r="D280">
-        <v>-0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>352</v>
       </c>
@@ -5536,13 +5536,13 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0.3122412330845471</v>
+        <v>0.16804005464199023</v>
       </c>
       <c r="D281">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>354</v>
       </c>
@@ -5550,13 +5550,13 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>0.19246893872464108</v>
+        <v>0.10816294923221575</v>
       </c>
       <c r="D282">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>356</v>
       </c>
@@ -5564,13 +5564,13 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0.29102431879306312</v>
+        <v>-2.1727498672586502E-2</v>
       </c>
       <c r="D283">
-        <v>-0.442</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>358</v>
       </c>
@@ -5578,13 +5578,13 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>0.70049216948794679</v>
+        <v>0.46230730404291315</v>
       </c>
       <c r="D284">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>360</v>
       </c>
@@ -5592,13 +5592,13 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>-0.15499505124857552</v>
+        <v>-0.18016821840587469</v>
       </c>
       <c r="D285">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -5606,13 +5606,13 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0.28678462183546843</v>
+        <v>0.25344553595598934</v>
       </c>
       <c r="D286">
-        <v>-0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>364</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>-3.90261037658323E-2</v>
+        <v>-2.8900621712882785E-2</v>
       </c>
       <c r="D287">
-        <v>-0.254</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0.16192677306752362</v>
+        <v>5.2905569675722249E-2</v>
       </c>
       <c r="D288">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>368</v>
       </c>
@@ -5648,13 +5648,13 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>-0.24482080425942737</v>
+        <v>-0.22746744267893659</v>
       </c>
       <c r="D289">
-        <v>-0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -5662,13 +5662,13 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>0.4780518249487562</v>
+        <v>0.26596536245556396</v>
       </c>
       <c r="D290">
-        <v>-0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -5676,13 +5676,13 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>5.9400629308216248E-2</v>
+        <v>-5.0402753465597971E-2</v>
       </c>
       <c r="D291">
-        <v>-0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>3.8763126400838857E-2</v>
+        <v>6.4673882441779504E-2</v>
       </c>
       <c r="D292">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>376</v>
       </c>
@@ -5704,13 +5704,13 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0.13210268089349542</v>
+        <v>0.14542577213995414</v>
       </c>
       <c r="D293">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5718,13 +5718,13 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0.1233511350637322</v>
+        <v>-1.6048698548247409E-2</v>
       </c>
       <c r="D294">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -5732,13 +5732,13 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>-3.1494687168006776E-2</v>
+        <v>-1.2384049406534698E-2</v>
       </c>
       <c r="D295">
-        <v>-0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>1.7966597255760761E-2</v>
+        <v>-0.10954830872112069</v>
       </c>
       <c r="D296">
-        <v>-0.154</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>384</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0.67653853640120409</v>
+        <v>0.22736022234644004</v>
       </c>
       <c r="D297">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -5774,13 +5774,13 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>0.26714699172641959</v>
+        <v>0.29627526670515703</v>
       </c>
       <c r="D298">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>388</v>
       </c>
@@ -5788,13 +5788,13 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>0.26862062158161404</v>
+        <v>0.17744234123176375</v>
       </c>
       <c r="D299">
-        <v>-0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -5802,13 +5802,13 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>-0.32274212017388354</v>
+        <v>-0.35554588096511847</v>
       </c>
       <c r="D300">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -5816,13 +5816,13 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0.57201435324388727</v>
+        <v>0.50322837287001398</v>
       </c>
       <c r="D301">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -5830,13 +5830,13 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>-0.18901550021187685</v>
+        <v>-0.31296585768708507</v>
       </c>
       <c r="D302">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>0.12998016002059937</v>
+        <v>6.2881828312275623E-2</v>
       </c>
       <c r="D303">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>-2.8591133169114678E-2</v>
+        <v>-0.48462821373106912</v>
       </c>
       <c r="D304">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>400</v>
       </c>
@@ -5872,13 +5872,13 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>2.045299645175868E-2</v>
+        <v>-0.121177564839307</v>
       </c>
       <c r="D305">
-        <v>-0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>402</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0.15109142399861358</v>
+        <v>0.16720540412905499</v>
       </c>
       <c r="D306">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>404</v>
       </c>
@@ -5900,13 +5900,13 @@
         <v>405</v>
       </c>
       <c r="C307">
-        <v>0.68304326958287997</v>
+        <v>0</v>
       </c>
       <c r="D307">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>406</v>
       </c>
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0.15198125100438917</v>
+        <v>0.12967554107970011</v>
       </c>
       <c r="D308">
-        <v>0.27</v>
+        <v>0.252</v>
       </c>
     </row>
   </sheetData>

--- a/data/TIDEs/FiveFU24hrs.xlsx
+++ b/data/TIDEs/FiveFU24hrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BFABD-8221-4192-A7AB-1E8F8F58329A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A785F9E-625F-45E1-95B5-33266F28A979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="7290" xr2:uid="{B3D3641E-E4CF-4378-AF46-35AA9425EBEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7296" xr2:uid="{B3D3641E-E4CF-4378-AF46-35AA9425EBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1606,9 +1606,9 @@
       <selection sqref="A1:D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1.2462711881546823E-2</v>
+        <v>9.1094182582999186E-2</v>
       </c>
       <c r="D1">
-        <v>-0.188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1630,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.14723411313688575</v>
+        <v>0.15805392404207208</v>
       </c>
       <c r="D2">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.20378179365704388</v>
+        <v>4.4218711298247351E-2</v>
       </c>
       <c r="D3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.1551725788735363</v>
+        <v>-1.3531559478909525E-2</v>
       </c>
       <c r="D4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>262</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.7727255226154619E-2</v>
+        <v>-4.97620441524372E-2</v>
       </c>
       <c r="D5">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>310</v>
       </c>
@@ -1686,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.15530453656617749</v>
+        <v>0.50558436582170652</v>
       </c>
       <c r="D6">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1700,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.17677041015648842</v>
+        <v>0.16130951861983811</v>
       </c>
       <c r="D7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.30467433273158295</v>
+        <v>0.20160623707099234</v>
       </c>
       <c r="D8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>9.2093254375149911E-2</v>
+        <v>0.12149239867625185</v>
       </c>
       <c r="D9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1742,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.15460141659007051</v>
+        <v>0.15670067523069986</v>
       </c>
       <c r="D10">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1756,13 +1756,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.15815830885883028</v>
+        <v>0.17585534029383679</v>
       </c>
       <c r="D11">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1770,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>8.7163596039861069E-2</v>
+        <v>0.46755861907227703</v>
       </c>
       <c r="D12">
-        <v>-0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1784,13 +1784,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.14075092603845141</v>
+        <v>0.50805178622546943</v>
       </c>
       <c r="D13">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.14075092603845141</v>
+        <v>0.50805178622546943</v>
       </c>
       <c r="D14">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1812,13 +1812,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>8.7163596039861069E-2</v>
+        <v>0.46755861907227703</v>
       </c>
       <c r="D15">
-        <v>-0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.11534461051024718</v>
+        <v>6.8691732257051261E-2</v>
       </c>
       <c r="D16">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1840,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>7.1690764285071956E-2</v>
+        <v>5.8085696310627835E-2</v>
       </c>
       <c r="D17">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>7.6130056836156035E-2</v>
+        <v>5.2816355454290011E-2</v>
       </c>
       <c r="D18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1868,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.10809540151441119</v>
+        <v>6.6922483322768067E-2</v>
       </c>
       <c r="D19">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1882,13 +1882,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0.10745133248282764</v>
+        <v>5.20782662259133E-2</v>
       </c>
       <c r="D20">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1896,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.12452610361101654</v>
+        <v>7.7375126444974823E-2</v>
       </c>
       <c r="D21">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.5418224589486036E-2</v>
+        <v>2.7106613517351379E-2</v>
       </c>
       <c r="D22">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1924,13 +1924,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8257529539240782E-2</v>
+        <v>5.1208753298351249E-3</v>
       </c>
       <c r="D23">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0.31400396808908021</v>
+        <v>3.5677978608327367E-2</v>
       </c>
       <c r="D24">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1952,13 +1952,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>-0.13741144645741576</v>
+        <v>5.2041019558490512E-2</v>
       </c>
       <c r="D25">
-        <v>-0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1966,13 +1966,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>9.2608506710734687E-2</v>
+        <v>0.23103555907598358</v>
       </c>
       <c r="D26">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0.28852277180468228</v>
+        <v>0.21127873993598503</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1994,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-2.4422545254273099E-2</v>
+        <v>-1.7127976203009598E-2</v>
       </c>
       <c r="D28">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2008,13 +2008,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>9.5631259900349333E-2</v>
+        <v>7.5838590265895331E-2</v>
       </c>
       <c r="D29">
-        <v>-0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2022,13 +2022,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.22023696022174344</v>
+        <v>-1.5227473794987624E-2</v>
       </c>
       <c r="D30">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.18281525612980365</v>
+        <v>-5.4835429941982462E-2</v>
       </c>
       <c r="D31">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2050,13 +2050,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>8.5964123900685308E-2</v>
+        <v>3.7859029225840106E-2</v>
       </c>
       <c r="D32">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2064,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>5.1385801750985692E-2</v>
+        <v>1.9138616899943901E-2</v>
       </c>
       <c r="D33">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2078,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.4390797797364821E-2</v>
+        <v>2.304985548677101E-2</v>
       </c>
       <c r="D34">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2092,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0.1211035396713819</v>
+        <v>2.6001700116753127E-2</v>
       </c>
       <c r="D35">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2106,13 +2106,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0.11926165502234318</v>
+        <v>4.0454089018593292E-2</v>
       </c>
       <c r="D36">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2120,13 +2120,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.428124927828439E-2</v>
+        <v>3.1721750167395056E-2</v>
       </c>
       <c r="D37">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2134,13 +2134,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.8777806681035971E-2</v>
+        <v>6.145282819799542E-2</v>
       </c>
       <c r="D38">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2148,13 +2148,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0.13855499679767949</v>
+        <v>0.16078642950425115</v>
       </c>
       <c r="D39">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>-9.9434320157882339E-3</v>
+        <v>7.2253805788997455E-2</v>
       </c>
       <c r="D40">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2176,13 +2176,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0.17368909008455524</v>
+        <v>0.15494012496055817</v>
       </c>
       <c r="D41">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -2190,13 +2190,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0.21457248893541447</v>
+        <v>0.17890319121999076</v>
       </c>
       <c r="D42">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45</v>
       </c>
@@ -2204,13 +2204,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.12534571624320215</v>
+        <v>0.13699081892122075</v>
       </c>
       <c r="D43">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>46</v>
       </c>
@@ -2218,13 +2218,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.18045175532142857</v>
+        <v>0.13129923030871174</v>
       </c>
       <c r="D44">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>47</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>6.3856056051471141E-2</v>
+        <v>0.15524513917679728</v>
       </c>
       <c r="D45">
-        <v>-0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -2246,13 +2246,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.14873025156227504</v>
+        <v>0.18526516734091814</v>
       </c>
       <c r="D46">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -2260,13 +2260,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.17704228013883896</v>
+        <v>0.27933069769060048</v>
       </c>
       <c r="D47">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2274,13 +2274,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0.142497179331425</v>
+        <v>0.17499729889917379</v>
       </c>
       <c r="D48">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>70</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0.14474671057953506</v>
+        <v>-7.4805591522270037E-2</v>
       </c>
       <c r="D49">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>73</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.10509920001174657</v>
+        <v>0.40535474324528714</v>
       </c>
       <c r="D50">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2316,13 +2316,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0.30287332107094916</v>
+        <v>0.14960401511076699</v>
       </c>
       <c r="D51">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2330,13 +2330,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.17146134390201714</v>
+        <v>0.13365568115945625</v>
       </c>
       <c r="D52">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>103</v>
       </c>
@@ -2344,13 +2344,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>9.6408749645914296E-2</v>
+        <v>4.3177391311467223E-2</v>
       </c>
       <c r="D53">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>104</v>
       </c>
@@ -2358,13 +2358,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.15027964163452043</v>
+        <v>0.15728230835400281</v>
       </c>
       <c r="D54">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2372,13 +2372,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.15481518149045626</v>
+        <v>0.16585805658181432</v>
       </c>
       <c r="D55">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>106</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0.17113655241280309</v>
+        <v>0.20134336226805385</v>
       </c>
       <c r="D56">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2400,13 +2400,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0.16200862619124576</v>
+        <v>0.16036041025756234</v>
       </c>
       <c r="D57">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>108</v>
       </c>
@@ -2414,13 +2414,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0.12152907065002702</v>
+        <v>0.12987021632188839</v>
       </c>
       <c r="D58">
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>109</v>
       </c>
@@ -2428,13 +2428,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>-2.9628791534326245E-3</v>
+        <v>7.2493283043783052E-2</v>
       </c>
       <c r="D59">
-        <v>-0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>110</v>
       </c>
@@ -2442,13 +2442,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>-2.5166840769733213E-3</v>
+        <v>7.1024249200406869E-2</v>
       </c>
       <c r="D60">
-        <v>-0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>111</v>
       </c>
@@ -2456,13 +2456,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>-3.0474147085680667E-3</v>
+        <v>6.4396967817921022E-2</v>
       </c>
       <c r="D61">
-        <v>-0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>112</v>
       </c>
@@ -2470,13 +2470,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0.18647024759407407</v>
+        <v>0.10416999832817811</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>113</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4.551673984477176E-2</v>
+        <v>2.9470809774090462E-2</v>
       </c>
       <c r="D63">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>114</v>
       </c>
@@ -2498,13 +2498,13 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>7.3038430543229588E-2</v>
+        <v>3.2898086810012744E-2</v>
       </c>
       <c r="D64">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>115</v>
       </c>
@@ -2512,13 +2512,13 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>9.0128464537475264E-2</v>
+        <v>5.5270026694942465E-2</v>
       </c>
       <c r="D65">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>116</v>
       </c>
@@ -2526,13 +2526,13 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0.14507324549515388</v>
+        <v>8.8839296728752182E-2</v>
       </c>
       <c r="D66">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>117</v>
       </c>
@@ -2540,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.21225822305172429</v>
+        <v>1.655399187400957E-2</v>
       </c>
       <c r="D67">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>121</v>
       </c>
@@ -2554,13 +2554,13 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0.13506763397896807</v>
+        <v>0.18180575657348039</v>
       </c>
       <c r="D68">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>122</v>
       </c>
@@ -2568,13 +2568,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.14123113946444618</v>
+        <v>0.24174398519878751</v>
       </c>
       <c r="D69">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>123</v>
       </c>
@@ -2582,13 +2582,13 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0.10541304238244407</v>
+        <v>0.19486557807818464</v>
       </c>
       <c r="D70">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>124</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.13852771165263497</v>
+        <v>0.26141251472604216</v>
       </c>
       <c r="D71">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>125</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.13537935456962052</v>
+        <v>0.24764475565281974</v>
       </c>
       <c r="D72">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>126</v>
       </c>
@@ -2624,13 +2624,13 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.13537935456962052</v>
+        <v>0.24764475565281974</v>
       </c>
       <c r="D73">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>127</v>
       </c>
@@ -2638,13 +2638,13 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0.13693543910490352</v>
+        <v>0.25049124709710502</v>
       </c>
       <c r="D74">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>128</v>
       </c>
@@ -2652,13 +2652,13 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>9.9791013455380384E-2</v>
+        <v>0.19989993333431783</v>
       </c>
       <c r="D75">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>129</v>
       </c>
@@ -2666,13 +2666,13 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0.13707779184748595</v>
+        <v>0.25527273677769008</v>
       </c>
       <c r="D76">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>130</v>
       </c>
@@ -2680,13 +2680,13 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.10805228862610097</v>
+        <v>0.22071713409744606</v>
       </c>
       <c r="D77">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>131</v>
       </c>
@@ -2694,13 +2694,13 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.10947402926591809</v>
+        <v>0.2236213069145177</v>
       </c>
       <c r="D78">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>132</v>
       </c>
@@ -2708,13 +2708,13 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>9.1349627246143414E-2</v>
+        <v>0.20100632662086584</v>
       </c>
       <c r="D79">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>133</v>
       </c>
@@ -2722,13 +2722,13 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>6.545111793450617E-2</v>
+        <v>0.17016704049854089</v>
       </c>
       <c r="D80">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>134</v>
       </c>
@@ -2736,13 +2736,13 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>6.545111793450617E-2</v>
+        <v>0.17016704049854089</v>
       </c>
       <c r="D81">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>135</v>
       </c>
@@ -2750,13 +2750,13 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.1258899270943582</v>
+        <v>0.25262266963699748</v>
       </c>
       <c r="D82">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>136</v>
       </c>
@@ -2764,13 +2764,13 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.11478638991690326</v>
+        <v>0.22225405421894212</v>
       </c>
       <c r="D83">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>137</v>
       </c>
@@ -2778,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.11336927399200322</v>
+        <v>0.21951017700636261</v>
       </c>
       <c r="D84">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2792,13 +2792,13 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.16805544555658986</v>
+        <v>0.23658767416150625</v>
       </c>
       <c r="D85">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>139</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.11336927399200322</v>
+        <v>0.21951017700636261</v>
       </c>
       <c r="D86">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2820,13 +2820,13 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0.11478638991690326</v>
+        <v>0.22225405421894212</v>
       </c>
       <c r="D87">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>141</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>9.7125107185916451E-2</v>
+        <v>0.2118236074006519</v>
       </c>
       <c r="D88">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>142</v>
       </c>
@@ -2848,13 +2848,13 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>7.3386018117112942E-2</v>
+        <v>0.18163539358792058</v>
       </c>
       <c r="D89">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>143</v>
       </c>
@@ -2862,13 +2862,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0.11959281145827083</v>
+        <v>0.2292162752204629</v>
       </c>
       <c r="D90">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>144</v>
       </c>
@@ -2876,13 +2876,13 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0.11818583720582058</v>
+        <v>0.21841681587679287</v>
       </c>
       <c r="D91">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>145</v>
       </c>
@@ -2890,13 +2890,13 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.11959281145827083</v>
+        <v>0.22101701606580232</v>
       </c>
       <c r="D92">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>146</v>
       </c>
@@ -2904,13 +2904,13 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.11959281145827083</v>
+        <v>0.22101701606580232</v>
       </c>
       <c r="D93">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>147</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.10270610177884376</v>
+        <v>0.21109196719370385</v>
       </c>
       <c r="D94">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>148</v>
       </c>
@@ -2932,13 +2932,13 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>8.6212106278008044E-2</v>
+        <v>0.20139773341165423</v>
       </c>
       <c r="D95">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>149</v>
       </c>
@@ -2946,13 +2946,13 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>7.9855801033863361E-2</v>
+        <v>0.18230088719769721</v>
       </c>
       <c r="D96">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>150</v>
       </c>
@@ -2960,13 +2960,13 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0.12538713944410618</v>
+        <v>0.23033646127047019</v>
       </c>
       <c r="D97">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>151</v>
       </c>
@@ -2974,13 +2974,13 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0.12396228558678679</v>
+        <v>0.21989243592658433</v>
       </c>
       <c r="D98">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>152</v>
       </c>
@@ -2988,13 +2988,13 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0.12396228558678679</v>
+        <v>0.21989243592658433</v>
       </c>
       <c r="D99">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>153</v>
       </c>
@@ -3002,13 +3002,13 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>9.5970218093593254E-2</v>
+        <v>0.19388520253645974</v>
       </c>
       <c r="D100">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>154</v>
       </c>
@@ -3016,13 +3016,13 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0.12795180544325788</v>
+        <v>0.22635192546242316</v>
       </c>
       <c r="D101">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>155</v>
       </c>
@@ -3030,13 +3030,13 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0.12657597957827663</v>
+        <v>0.21651225132851015</v>
       </c>
       <c r="D102">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>156</v>
       </c>
@@ -3044,13 +3044,13 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0.13160886531168972</v>
+        <v>0.2250987724432808</v>
       </c>
       <c r="D103">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>157</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0.13160886531168972</v>
+        <v>0.21792442068295281</v>
       </c>
       <c r="D104">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>159</v>
       </c>
@@ -3072,13 +3072,13 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>-2.1169624205213664E-3</v>
+        <v>0.37636735263565391</v>
       </c>
       <c r="D105">
-        <v>-0.154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>160</v>
       </c>
@@ -3086,13 +3086,13 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0.20370034093336023</v>
+        <v>0.11223850606436181</v>
       </c>
       <c r="D106">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>161</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0.17704283475394991</v>
+        <v>9.9346389500731477E-2</v>
       </c>
       <c r="D107">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>162</v>
       </c>
@@ -3114,13 +3114,13 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0.18257210916862723</v>
+        <v>0.10746415355922867</v>
       </c>
       <c r="D108">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>163</v>
       </c>
@@ -3128,13 +3128,13 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0.1846439299884394</v>
+        <v>0.11301490977446477</v>
       </c>
       <c r="D109">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>164</v>
       </c>
@@ -3142,13 +3142,13 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0.1694811265272867</v>
+        <v>8.6274845138548106E-2</v>
       </c>
       <c r="D110">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>165</v>
       </c>
@@ -3156,13 +3156,13 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0.17957912377242022</v>
+        <v>0.10570244612383148</v>
       </c>
       <c r="D111">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>166</v>
       </c>
@@ -3170,13 +3170,13 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0.21753074043573065</v>
+        <v>0.15420703381531264</v>
       </c>
       <c r="D112">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>167</v>
       </c>
@@ -3184,13 +3184,13 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0.23423933746040851</v>
+        <v>0.13263919809791125</v>
       </c>
       <c r="D113">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>168</v>
       </c>
@@ -3198,13 +3198,13 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0.20796786544763832</v>
+        <v>0.11983832799349638</v>
       </c>
       <c r="D114">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>169</v>
       </c>
@@ -3212,13 +3212,13 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0.20520295360239296</v>
+        <v>0.12274322443169237</v>
       </c>
       <c r="D115">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>171</v>
       </c>
@@ -3226,13 +3226,13 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>-2.1169624205213664E-3</v>
+        <v>0.37636735263565391</v>
       </c>
       <c r="D116">
-        <v>-0.154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>172</v>
       </c>
@@ -3240,13 +3240,13 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0.18095576635943364</v>
+        <v>-9.0521625851967599E-3</v>
       </c>
       <c r="D117">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>173</v>
       </c>
@@ -3254,13 +3254,13 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0.16583724840334815</v>
+        <v>-1.5249738095069175E-2</v>
       </c>
       <c r="D118">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>174</v>
       </c>
@@ -3268,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0.178625854564334</v>
+        <v>2.7964361622068333E-3</v>
       </c>
       <c r="D119">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>175</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0.1872180677528924</v>
+        <v>9.8260758868008169E-3</v>
       </c>
       <c r="D120">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>176</v>
       </c>
@@ -3296,13 +3296,13 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0.18002568051608073</v>
+        <v>1.0097561326010576E-2</v>
       </c>
       <c r="D121">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>177</v>
       </c>
@@ -3310,13 +3310,13 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0.178625854564334</v>
+        <v>2.7964361622068333E-3</v>
       </c>
       <c r="D122">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>178</v>
       </c>
@@ -3324,13 +3324,13 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0.1959112447484998</v>
+        <v>-7.9251834462256456E-3</v>
       </c>
       <c r="D123">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>179</v>
       </c>
@@ -3338,13 +3338,13 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0.19671164868939359</v>
+        <v>3.2537964263220834E-4</v>
       </c>
       <c r="D124">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>180</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0.18231911835653905</v>
+        <v>-1.0000678562476228E-3</v>
       </c>
       <c r="D125">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>181</v>
       </c>
@@ -3366,13 +3366,13 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0.12437873812157581</v>
+        <v>-8.719988152850798E-2</v>
       </c>
       <c r="D126">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>182</v>
       </c>
@@ -3380,13 +3380,13 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>0.16537094970371044</v>
+        <v>-5.5592900206127692E-2</v>
       </c>
       <c r="D127">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>183</v>
       </c>
@@ -3394,13 +3394,13 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0.1388023928425883</v>
+        <v>-2.2679418252460472E-2</v>
       </c>
       <c r="D128">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>184</v>
       </c>
@@ -3408,13 +3408,13 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0.14342913927067463</v>
+        <v>-3.4836781201793704E-2</v>
       </c>
       <c r="D129">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>185</v>
       </c>
@@ -3422,13 +3422,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0.13905177009960124</v>
+        <v>-7.9193953047900945E-2</v>
       </c>
       <c r="D130">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>186</v>
       </c>
@@ -3436,13 +3436,13 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0.13905177009960118</v>
+        <v>-7.9193953047900945E-2</v>
       </c>
       <c r="D131">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>187</v>
       </c>
@@ -3450,13 +3450,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0.14036380737722945</v>
+        <v>-8.0947628228943455E-2</v>
       </c>
       <c r="D132">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>188</v>
       </c>
@@ -3464,13 +3464,13 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0.14498099094156505</v>
+        <v>-4.0318130414831573E-2</v>
       </c>
       <c r="D133">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>189</v>
       </c>
@@ -3478,13 +3478,13 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0.16531963984625189</v>
+        <v>-5.8721817042764517E-2</v>
       </c>
       <c r="D134">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>190</v>
       </c>
@@ -3492,13 +3492,13 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0.16531963984625189</v>
+        <v>-5.8721817042764517E-2</v>
       </c>
       <c r="D135">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>191</v>
       </c>
@@ -3506,13 +3506,13 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0.13328306172022805</v>
+        <v>-1.6991928128008378E-2</v>
       </c>
       <c r="D136">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>192</v>
       </c>
@@ -3520,13 +3520,13 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0.13758251532410637</v>
+        <v>-2.8573650655606599E-2</v>
       </c>
       <c r="D137">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>193</v>
       </c>
@@ -3534,13 +3534,13 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0.13758251532410637</v>
+        <v>-2.8573650655606599E-2</v>
       </c>
       <c r="D138">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>194</v>
       </c>
@@ -3548,13 +3548,13 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0.11571382293567371</v>
+        <v>-8.1242828308403063E-3</v>
       </c>
       <c r="D139">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>195</v>
       </c>
@@ -3562,13 +3562,13 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D140">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>196</v>
       </c>
@@ -3576,13 +3576,13 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0.16548776798130466</v>
+        <v>-6.1320389068135389E-2</v>
       </c>
       <c r="D141">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>197</v>
       </c>
@@ -3590,13 +3590,13 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0.11950771876963023</v>
+        <v>-4.4472442789675208E-2</v>
       </c>
       <c r="D142">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>198</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0.1434291392706746</v>
+        <v>-3.483678120179369E-2</v>
       </c>
       <c r="D143">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>199</v>
       </c>
@@ -3618,13 +3618,13 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0.14342913927067463</v>
+        <v>-3.4836781201793704E-2</v>
       </c>
       <c r="D144">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>200</v>
       </c>
@@ -3632,13 +3632,13 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D145">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>201</v>
       </c>
@@ -3646,13 +3646,13 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0.15888304707918188</v>
+        <v>4.538564512924332E-2</v>
       </c>
       <c r="D146">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>202</v>
       </c>
@@ -3660,13 +3660,13 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0.17892764168469416</v>
+        <v>6.8114232381788903E-2</v>
       </c>
       <c r="D147">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>203</v>
       </c>
@@ -3674,13 +3674,13 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0.16564143348108404</v>
+        <v>-6.3695428016054975E-2</v>
       </c>
       <c r="D148">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>204</v>
       </c>
@@ -3688,13 +3688,13 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0.17901204179669739</v>
+        <v>5.4798637135597274E-2</v>
       </c>
       <c r="D149">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>205</v>
       </c>
@@ -3702,13 +3702,13 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D150">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>206</v>
       </c>
@@ -3716,13 +3716,13 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>0.15465426017300424</v>
+        <v>-1.126974876949711E-2</v>
       </c>
       <c r="D151">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>207</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>0.18000653209483239</v>
+        <v>-7.2936274720282229E-4</v>
       </c>
       <c r="D152">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3744,13 +3744,13 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>0.18773970990163116</v>
+        <v>6.5003702551378939E-2</v>
       </c>
       <c r="D153">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>209</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0.14536938106645472</v>
+        <v>2.5339284306654036E-2</v>
       </c>
       <c r="D154">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>210</v>
       </c>
@@ -3772,13 +3772,13 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>0.17846675133392903</v>
+        <v>4.5410216218180109E-2</v>
       </c>
       <c r="D155">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>211</v>
       </c>
@@ -3786,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>0.12505063525721605</v>
+        <v>-5.0129098292241617E-2</v>
       </c>
       <c r="D156">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>212</v>
       </c>
@@ -3800,13 +3800,13 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0.1627378041029274</v>
+        <v>3.7964620705415036E-2</v>
       </c>
       <c r="D157">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>213</v>
       </c>
@@ -3814,13 +3814,13 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>0.12447991620932564</v>
+        <v>-3.4682337559796356E-2</v>
       </c>
       <c r="D158">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>214</v>
       </c>
@@ -3828,13 +3828,13 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>0.12098894922126764</v>
+        <v>-8.4199013654533056E-2</v>
       </c>
       <c r="D159">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>215</v>
       </c>
@@ -3842,13 +3842,13 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>0.12142200939163082</v>
+        <v>-4.32852333442219E-2</v>
       </c>
       <c r="D160">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>216</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>0.11747952084099757</v>
+        <v>-8.778798674883688E-2</v>
       </c>
       <c r="D161">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>217</v>
       </c>
@@ -3870,13 +3870,13 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>0.11950771876963023</v>
+        <v>-4.4472442789675208E-2</v>
       </c>
       <c r="D162">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>218</v>
       </c>
@@ -3884,13 +3884,13 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>0.18000653209483239</v>
+        <v>-7.2936274720282229E-4</v>
       </c>
       <c r="D163">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>219</v>
       </c>
@@ -3898,13 +3898,13 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>0.15465426017300421</v>
+        <v>-1.1269748769497117E-2</v>
       </c>
       <c r="D164">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3912,13 +3912,13 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>0.18000653209483239</v>
+        <v>-7.2936274720282229E-4</v>
       </c>
       <c r="D165">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>221</v>
       </c>
@@ -3926,13 +3926,13 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>0.18000653209483239</v>
+        <v>-7.2936274720282229E-4</v>
       </c>
       <c r="D166">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>222</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>0.15527479642859959</v>
+        <v>2.4096812869041691E-2</v>
       </c>
       <c r="D167">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>223</v>
       </c>
@@ -3954,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>0.17437937185355584</v>
+        <v>3.249563041360802E-2</v>
       </c>
       <c r="D168">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>224</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>0.18000653209483239</v>
+        <v>-7.2936274720282229E-4</v>
       </c>
       <c r="D169">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>225</v>
       </c>
@@ -3982,13 +3982,13 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D170">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>226</v>
       </c>
@@ -3996,13 +3996,13 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D171">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>227</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D172">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>228</v>
       </c>
@@ -4024,13 +4024,13 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>0.1353949331953774</v>
+        <v>-9.679885231359639E-3</v>
       </c>
       <c r="D173">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>229</v>
       </c>
@@ -4038,13 +4038,13 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0.14376621508161674</v>
+        <v>-1.7061725467101246E-2</v>
       </c>
       <c r="D174">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>230</v>
       </c>
@@ -4052,13 +4052,13 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0.16523009341065567</v>
+        <v>-8.1565723406973514E-3</v>
       </c>
       <c r="D175">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>231</v>
       </c>
@@ -4066,13 +4066,13 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0.16611956905406985</v>
+        <v>-1.6046762327263688E-2</v>
       </c>
       <c r="D176">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>232</v>
       </c>
@@ -4080,13 +4080,13 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0.17279029561496578</v>
+        <v>-4.223266745699629E-2</v>
       </c>
       <c r="D177">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>233</v>
       </c>
@@ -4094,13 +4094,13 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>0.14342913927067463</v>
+        <v>-3.4836781201793704E-2</v>
       </c>
       <c r="D178">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>234</v>
       </c>
@@ -4108,13 +4108,13 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>0.17437937185355584</v>
+        <v>3.2495630413608007E-2</v>
       </c>
       <c r="D179">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>235</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>0.17100870299475596</v>
+        <v>2.4135692214088327E-2</v>
       </c>
       <c r="D180">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>236</v>
       </c>
@@ -4136,13 +4136,13 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D181">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>237</v>
       </c>
@@ -4150,13 +4150,13 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>0.19414212124348565</v>
+        <v>3.1163020177535559E-2</v>
       </c>
       <c r="D182">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>238</v>
       </c>
@@ -4164,13 +4164,13 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D183">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>239</v>
       </c>
@@ -4178,13 +4178,13 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>0.18000653209483239</v>
+        <v>-7.293627472028146E-4</v>
       </c>
       <c r="D184">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>240</v>
       </c>
@@ -4192,13 +4192,13 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0.16647629654464408</v>
+        <v>0.18096789956911186</v>
       </c>
       <c r="D185">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>245</v>
       </c>
@@ -4206,13 +4206,13 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>0.13325317478050694</v>
+        <v>-2.5133114255655693E-2</v>
       </c>
       <c r="D186">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>247</v>
       </c>
@@ -4220,13 +4220,13 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>9.502015164040592E-2</v>
+        <v>6.6523849370013127E-2</v>
       </c>
       <c r="D187">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>248</v>
       </c>
@@ -4234,13 +4234,13 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>0.17385910613004707</v>
+        <v>8.6567900767799119E-2</v>
       </c>
       <c r="D188">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>252</v>
       </c>
@@ -4248,13 +4248,13 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>0.1536312006775867</v>
+        <v>-1.1239320281309206E-2</v>
       </c>
       <c r="D189">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>254</v>
       </c>
@@ -4262,13 +4262,13 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>0.1462401304377626</v>
+        <v>5.5124936626165105E-2</v>
       </c>
       <c r="D190">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>255</v>
       </c>
@@ -4276,13 +4276,13 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>6.7793829403945002E-2</v>
+        <v>0.13809732754759277</v>
       </c>
       <c r="D191">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>-6.506909650546569E-2</v>
+        <v>-4.38981023454851E-2</v>
       </c>
       <c r="D192">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>257</v>
       </c>
@@ -4304,13 +4304,13 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>6.3128511522838618E-2</v>
+        <v>-9.2116495573005677E-2</v>
       </c>
       <c r="D193">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>259</v>
       </c>
@@ -4318,13 +4318,13 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>8.2520982540293358E-2</v>
+        <v>7.9135888594415275E-3</v>
       </c>
       <c r="D194">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>260</v>
       </c>
@@ -4332,13 +4332,13 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>-5.502177489321454E-2</v>
+        <v>-6.0073526371684248E-2</v>
       </c>
       <c r="D195">
-        <v>0.48199999999999998</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>261</v>
       </c>
@@ -4346,13 +4346,13 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>9.2565772132732038E-2</v>
+        <v>-1.7683391697597185E-2</v>
       </c>
       <c r="D196">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>263</v>
       </c>
@@ -4360,13 +4360,13 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0.2305659361470625</v>
+        <v>0.45410087180768205</v>
       </c>
       <c r="D197">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>264</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>-1.0784776218394467</v>
+        <v>-0.45318374874835143</v>
       </c>
       <c r="D198">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>265</v>
       </c>
@@ -4388,13 +4388,13 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>6.2320546714678675E-2</v>
+        <v>-7.5724722104449305E-2</v>
       </c>
       <c r="D199">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>266</v>
       </c>
@@ -4402,13 +4402,13 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>-1.6343384987878365E-2</v>
+        <v>-0.13909394471027486</v>
       </c>
       <c r="D200">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>267</v>
       </c>
@@ -4416,13 +4416,13 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>4.9630504863399101E-2</v>
+        <v>-3.679344447809875E-2</v>
       </c>
       <c r="D201">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>268</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>7.4182669663622788E-2</v>
+        <v>-1.5365809841228174E-3</v>
       </c>
       <c r="D202">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>269</v>
       </c>
@@ -4444,13 +4444,13 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>-2.6549883042940908E-2</v>
+        <v>-0.13423111031815843</v>
       </c>
       <c r="D203">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>272</v>
       </c>
@@ -4458,13 +4458,13 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>0.22935840671829658</v>
+        <v>0.26568914072966071</v>
       </c>
       <c r="D204">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>277</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>0.10398460943065083</v>
+        <v>4.4942866380681262E-2</v>
       </c>
       <c r="D205">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>306</v>
       </c>
@@ -4486,13 +4486,13 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>6.1167935847872133E-2</v>
+        <v>0.13862500226656266</v>
       </c>
       <c r="D206">
-        <v>-0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>307</v>
       </c>
@@ -4500,13 +4500,13 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>7.1060271937445657E-2</v>
+        <v>2.0108807056811284E-2</v>
       </c>
       <c r="D207">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>308</v>
       </c>
@@ -4514,13 +4514,13 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0.10896175856411729</v>
+        <v>4.467219161013667E-2</v>
       </c>
       <c r="D208">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>309</v>
       </c>
@@ -4528,13 +4528,13 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>7.4907997934276355E-2</v>
+        <v>7.6178505861188295E-2</v>
       </c>
       <c r="D209">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>321</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>9.9918920202344594E-2</v>
+        <v>0.17154934147518439</v>
       </c>
       <c r="D210">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>322</v>
       </c>
@@ -4556,13 +4556,13 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>9.9918920202344594E-2</v>
+        <v>0.17154934147518439</v>
       </c>
       <c r="D211">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>323</v>
       </c>
@@ -4570,13 +4570,13 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>9.9918920202344594E-2</v>
+        <v>0.17791582964779148</v>
       </c>
       <c r="D212">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -4584,13 +4584,13 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>5.0677515413477286E-2</v>
+        <v>3.9719186096571546E-2</v>
       </c>
       <c r="D213">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -4598,13 +4598,13 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>8.5280234243330602E-2</v>
+        <v>-0.15185115807671448</v>
       </c>
       <c r="D214">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4612,13 +4612,13 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>8.9380239568817146E-2</v>
+        <v>3.3337183035025343E-2</v>
       </c>
       <c r="D215">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -4626,13 +4626,13 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>-0.40275783976857438</v>
+        <v>3.8372424894522195E-3</v>
       </c>
       <c r="D216">
-        <v>-3.9E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>4.6444672199341196E-2</v>
+        <v>2.8738869504754492E-2</v>
       </c>
       <c r="D217">
-        <v>-0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4654,13 +4654,13 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>0.13731812672643584</v>
+        <v>2.246878742533091E-2</v>
       </c>
       <c r="D218">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>0.21628711856002153</v>
+        <v>-4.0581260291331307E-2</v>
       </c>
       <c r="D219">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -4682,13 +4682,13 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0.47836176671118047</v>
+        <v>7.7904639649203702E-2</v>
       </c>
       <c r="D220">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -4696,13 +4696,13 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>0.24104709953089398</v>
+        <v>0.15485943614860551</v>
       </c>
       <c r="D221">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -4710,13 +4710,13 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>0.39501956948774736</v>
+        <v>0.27451702741643297</v>
       </c>
       <c r="D222">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -4724,13 +4724,13 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>-0.52151654133513969</v>
+        <v>-1.1116990477639459</v>
       </c>
       <c r="D223">
-        <v>-7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -4738,13 +4738,13 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>-1.5248843995131224E-2</v>
+        <v>-0.14062883288883579</v>
       </c>
       <c r="D224">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -4752,13 +4752,13 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>-0.137929727192247</v>
       </c>
       <c r="D225">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -4769,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>3.0570586263612459E-2</v>
+        <v>0.11395005409799162</v>
       </c>
       <c r="D227">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -4794,13 +4794,13 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>0.21828392512278974</v>
+        <v>0.47734687882839899</v>
       </c>
       <c r="D228">
-        <v>-0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0.15690357661712326</v>
+        <v>0.15068293807082384</v>
       </c>
       <c r="D229">
-        <v>0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -4822,13 +4822,13 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>0.15340413672654327</v>
+        <v>0.19161572984820946</v>
       </c>
       <c r="D230">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -4836,13 +4836,13 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>0.18648675904704651</v>
+        <v>6.9574004802896217E-2</v>
       </c>
       <c r="D231">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4850,13 +4850,13 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0.14498099094156505</v>
+        <v>-4.0318130414831573E-2</v>
       </c>
       <c r="D232">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -4864,13 +4864,13 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>-0.11092697215333701</v>
+        <v>-0.10664855853860267</v>
       </c>
       <c r="D233">
-        <v>-0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -4878,13 +4878,13 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>-4.8639069506356665E-2</v>
+        <v>3.873449358976723E-2</v>
       </c>
       <c r="D234">
-        <v>-0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4892,13 +4892,13 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>1.2244024364833206</v>
+        <v>0.89808533523752165</v>
       </c>
       <c r="D235">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0.15239710034027329</v>
+        <v>0.13734257248493684</v>
       </c>
       <c r="D236">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -4920,13 +4920,13 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>0.18368739059934747</v>
+        <v>0.11134786969965733</v>
       </c>
       <c r="D237">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4934,13 +4934,13 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0.29832536023359529</v>
+        <v>0.1746762613071671</v>
       </c>
       <c r="D238">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>0.17823229499947876</v>
+        <v>-5.0374604440083182E-2</v>
       </c>
       <c r="D239">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -4962,13 +4962,13 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>0.11268447913885374</v>
+        <v>1.8045286167063974E-2</v>
       </c>
       <c r="D240">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -4976,13 +4976,13 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>0.15435859997339224</v>
+        <v>-6.2446152614945356E-2</v>
       </c>
       <c r="D241">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4990,13 +4990,13 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>0.17910721809239247</v>
+        <v>8.346180748772327E-3</v>
       </c>
       <c r="D242">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>5.9352496196695005E-2</v>
+        <v>-0.11371619335875723</v>
       </c>
       <c r="D243">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5018,13 +5018,13 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0.20339966853568342</v>
+        <v>-3.0974218033995402E-2</v>
       </c>
       <c r="D244">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -5032,13 +5032,13 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0.19374411639735126</v>
+        <v>-0.15036108586933736</v>
       </c>
       <c r="D245">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>282</v>
       </c>
@@ -5046,13 +5046,13 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>0.22307827697584001</v>
+        <v>-0.12011797841371546</v>
       </c>
       <c r="D246">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -5060,13 +5060,13 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>0.23306675316936604</v>
+        <v>-9.2389395320476679E-3</v>
       </c>
       <c r="D247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -5074,13 +5074,13 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>0.13169746336574931</v>
+        <v>-2.258214402167312E-2</v>
       </c>
       <c r="D248">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5088,13 +5088,13 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>0.16141073101161973</v>
+        <v>1.8379156732209304E-2</v>
       </c>
       <c r="D249">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -5102,13 +5102,13 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>0.16911844162518935</v>
+        <v>-8.2148361491660906E-3</v>
       </c>
       <c r="D250">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5116,13 +5116,13 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>0.17793680792143499</v>
+        <v>4.1549098104060678E-3</v>
       </c>
       <c r="D251">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5130,13 +5130,13 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>6.3200390034009041E-3</v>
+        <v>-0.12452754482403854</v>
       </c>
       <c r="D252">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -5144,13 +5144,13 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>0.18089026131946831</v>
+        <v>-1.4624119220004324E-3</v>
       </c>
       <c r="D253">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -5158,13 +5158,13 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>0.29416401882447973</v>
+        <v>-6.1612813474761836E-2</v>
       </c>
       <c r="D254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -5172,13 +5172,13 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>0.2136142698670874</v>
+        <v>4.4545928536548533E-2</v>
       </c>
       <c r="D255">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5186,13 +5186,13 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>0.15812735867554548</v>
+        <v>8.8487553422116602E-2</v>
       </c>
       <c r="D256">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -5200,13 +5200,13 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>0.13569911125500225</v>
+        <v>-5.395845449085207E-2</v>
       </c>
       <c r="D257">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>0.18024990805188482</v>
+        <v>-1.77529526259038E-2</v>
       </c>
       <c r="D258">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>0.16875792200403952</v>
+        <v>-1.7708123244304697E-2</v>
       </c>
       <c r="D259">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -5242,13 +5242,13 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>8.2074964858589672E-2</v>
+        <v>5.9377914901897798E-3</v>
       </c>
       <c r="D260">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>312</v>
       </c>
@@ -5256,13 +5256,13 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>8.2470238993315667E-2</v>
+        <v>5.181395512531454E-3</v>
       </c>
       <c r="D261">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -5270,13 +5270,13 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>9.4741642851474767E-2</v>
+        <v>0.22071737234610028</v>
       </c>
       <c r="D262">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -5284,13 +5284,13 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>5.7014555688667971E-2</v>
+        <v>2.9431032114305977E-2</v>
       </c>
       <c r="D263">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -5298,13 +5298,13 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0.20989050839115247</v>
+        <v>0.41025388032103333</v>
       </c>
       <c r="D264">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5312,13 +5312,13 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>0.17814360981116834</v>
+        <v>-1.8139897155677924E-2</v>
       </c>
       <c r="D265">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -5326,13 +5326,13 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>-0.30942995053455391</v>
+        <v>0.12887728306730209</v>
       </c>
       <c r="D266">
-        <v>-3.1E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -5340,13 +5340,13 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0.70141810481005595</v>
+        <v>0.1188242179887274</v>
       </c>
       <c r="D267">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>326</v>
       </c>
@@ -5354,13 +5354,13 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>0.42139033025052869</v>
+        <v>7.3562836813127154E-3</v>
       </c>
       <c r="D268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -5368,13 +5368,13 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>2.4936433518268332E-2</v>
+        <v>2.6369799000087603E-2</v>
       </c>
       <c r="D269">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -5382,13 +5382,13 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>0.26588355459751878</v>
+        <v>5.5420269340396712E-2</v>
       </c>
       <c r="D270">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -5396,13 +5396,13 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>8.6361560914444385E-2</v>
+        <v>-8.7050972763488249E-2</v>
       </c>
       <c r="D271">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -5410,13 +5410,13 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>-0.18789221958052441</v>
+        <v>3.1571262075152914E-2</v>
       </c>
       <c r="D272">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -5424,13 +5424,13 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>0.13532393431800777</v>
+        <v>-0.18959002174690393</v>
       </c>
       <c r="D273">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -5438,13 +5438,13 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>4.1176856309544672E-2</v>
+        <v>-5.9248252407806554E-2</v>
       </c>
       <c r="D274">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5452,13 +5452,13 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>2.3988352213797311E-2</v>
+        <v>7.1399777592447394E-2</v>
       </c>
       <c r="D275">
-        <v>-0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5466,13 +5466,13 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>3.22687131342193E-2</v>
+        <v>8.584627737606737E-3</v>
       </c>
       <c r="D276">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -5480,13 +5480,13 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0.13189906573221452</v>
+        <v>0.19659230730684032</v>
       </c>
       <c r="D277">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -5494,13 +5494,13 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>-6.6358884313391694E-2</v>
+        <v>0.11362642415229293</v>
       </c>
       <c r="D278">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -5508,13 +5508,13 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>-0.10002183726401553</v>
+        <v>0.76146585816230317</v>
       </c>
       <c r="D279">
-        <v>-0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -5522,13 +5522,13 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>7.465419692567774E-3</v>
+        <v>-2.5063214086014762E-2</v>
       </c>
       <c r="D280">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>352</v>
       </c>
@@ -5536,13 +5536,13 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0.16804005464199023</v>
+        <v>1.3973501625728812E-2</v>
       </c>
       <c r="D281">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>354</v>
       </c>
@@ -5550,13 +5550,13 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>0.10816294923221575</v>
+        <v>0.24767519173496061</v>
       </c>
       <c r="D282">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>356</v>
       </c>
@@ -5564,13 +5564,13 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>-2.1727498672586502E-2</v>
+        <v>0.18591299901003014</v>
       </c>
       <c r="D283">
-        <v>-0.191</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>358</v>
       </c>
@@ -5578,13 +5578,13 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>0.46230730404291315</v>
+        <v>-0.52941472690145153</v>
       </c>
       <c r="D284">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>360</v>
       </c>
@@ -5592,13 +5592,13 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>-0.18016821840587469</v>
+        <v>-0.18063972551809943</v>
       </c>
       <c r="D285">
-        <v>-0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -5606,13 +5606,13 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0.25344553595598934</v>
+        <v>0.26957207216662915</v>
       </c>
       <c r="D286">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>364</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>-2.8900621712882785E-2</v>
+        <v>-6.2248857334902367E-2</v>
       </c>
       <c r="D287">
-        <v>-0.46400000000000002</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>5.2905569675722249E-2</v>
+        <v>0.11546583342757548</v>
       </c>
       <c r="D288">
-        <v>-0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>368</v>
       </c>
@@ -5648,13 +5648,13 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>-0.22746744267893659</v>
+        <v>-0.52891118749887112</v>
       </c>
       <c r="D289">
-        <v>-0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -5662,13 +5662,13 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>0.26596536245556396</v>
+        <v>-1.3486464209322697</v>
       </c>
       <c r="D290">
-        <v>-0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -5676,13 +5676,13 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>-5.0402753465597971E-2</v>
+        <v>-5.9482036682210859E-2</v>
       </c>
       <c r="D291">
-        <v>-0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>6.4673882441779504E-2</v>
+        <v>7.3390270592107384E-2</v>
       </c>
       <c r="D292">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>376</v>
       </c>
@@ -5704,13 +5704,13 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0.14542577213995414</v>
+        <v>2.8313629654878551E-2</v>
       </c>
       <c r="D293">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5718,13 +5718,13 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>-1.6048698548247409E-2</v>
+        <v>8.8661650121645855E-2</v>
       </c>
       <c r="D294">
-        <v>-0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -5732,13 +5732,13 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>-1.2384049406534698E-2</v>
+        <v>-0.26178310301051988</v>
       </c>
       <c r="D295">
-        <v>-0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>-0.10954830872112069</v>
+        <v>-4.7647360610485519E-3</v>
       </c>
       <c r="D296">
-        <v>-0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>384</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0.22736022234644004</v>
+        <v>-9.219115887317704E-2</v>
       </c>
       <c r="D297">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -5774,13 +5774,13 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>0.29627526670515703</v>
+        <v>0.16134651055632754</v>
       </c>
       <c r="D298">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>388</v>
       </c>
@@ -5788,13 +5788,13 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>0.17744234123176375</v>
+        <v>0.11686565332461757</v>
       </c>
       <c r="D299">
-        <v>-0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -5802,13 +5802,13 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>-0.35554588096511847</v>
+        <v>-0.22513284924682589</v>
       </c>
       <c r="D300">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -5816,13 +5816,13 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0.50322837287001398</v>
+        <v>0.18462748514427788</v>
       </c>
       <c r="D301">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -5830,13 +5830,13 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>-0.31296585768708507</v>
+        <v>-0.17942338916391098</v>
       </c>
       <c r="D302">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>6.2881828312275623E-2</v>
+        <v>-0.1664127933313522</v>
       </c>
       <c r="D303">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>-0.48462821373106912</v>
+        <v>-0.50762624065057682</v>
       </c>
       <c r="D304">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>400</v>
       </c>
@@ -5872,13 +5872,13 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>-0.121177564839307</v>
+        <v>0.14194333699417844</v>
       </c>
       <c r="D305">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>402</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0.16720540412905499</v>
+        <v>-0.17925378642954312</v>
       </c>
       <c r="D306">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>404</v>
       </c>
@@ -5903,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>406</v>
       </c>
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0.12967554107970011</v>
+        <v>6.5689528788223789E-2</v>
       </c>
       <c r="D308">
-        <v>0.252</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
   </sheetData>
